--- a/C4_moments_May24.xlsx
+++ b/C4_moments_May24.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mqc6502/Library/CloudStorage/GoogleDrive-mjcarrerasv@gmail.com/My Drive/Carreras_PP/C4_05_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABDB97B-E1B7-6E4A-AFAB-1F8B01BFE7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EE3711-C142-A24B-B7D6-AF8F6F8FBD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44800" yWindow="2100" windowWidth="38400" windowHeight="19840" xr2:uid="{4148E61D-5E29-2B43-AFE1-C70B1D259503}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="38400" windowHeight="19840" xr2:uid="{4148E61D-5E29-2B43-AFE1-C70B1D259503}"/>
   </bookViews>
   <sheets>
     <sheet name="v3 code4 inv2" sheetId="12" r:id="rId1"/>
-    <sheet name="v2 code4 2inv" sheetId="11" r:id="rId2"/>
-    <sheet name="code5 3inp" sheetId="10" r:id="rId3"/>
-    <sheet name="code4 2inv" sheetId="5" r:id="rId4"/>
-    <sheet name="gridsize analysis2" sheetId="8" r:id="rId5"/>
-    <sheet name="gridsize analysis" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="9" r:id="rId7"/>
-    <sheet name="moments" sheetId="2" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId9"/>
-    <sheet name="code analysis 1" sheetId="1" r:id="rId10"/>
-    <sheet name="code analysis 2" sheetId="3" r:id="rId11"/>
-    <sheet name="delivery distribution" sheetId="4" r:id="rId12"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId2"/>
+    <sheet name="v2 code4 2inv" sheetId="11" r:id="rId3"/>
+    <sheet name="code5 3inp" sheetId="10" r:id="rId4"/>
+    <sheet name="code4 2inv" sheetId="5" r:id="rId5"/>
+    <sheet name="gridsize analysis2" sheetId="8" r:id="rId6"/>
+    <sheet name="gridsize analysis" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId8"/>
+    <sheet name="moments" sheetId="2" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId10"/>
+    <sheet name="code analysis 1" sheetId="1" r:id="rId11"/>
+    <sheet name="code analysis 2" sheetId="3" r:id="rId12"/>
+    <sheet name="delivery distribution" sheetId="4" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="2176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="2274">
   <si>
     <t>CODE ANALYSIS</t>
   </si>
@@ -6311,6 +6312,12 @@
     <t>("uncertainty"</t>
   </si>
   <si>
+    <t xml:space="preserve"> lamd2v</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lamf2v</t>
+  </si>
+  <si>
     <t>160.053466 seconds (136.66 k allocations: 9.348 MiB)</t>
   </si>
   <si>
@@ -6605,6 +6612,9 @@
     <t>(0.0881</t>
   </si>
   <si>
+    <t xml:space="preserve"> :</t>
+  </si>
+  <si>
     <t>Main_v2</t>
   </si>
   <si>
@@ -6633,6 +6643,338 @@
   </si>
   <si>
     <t>V_1.jld2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a29) = (0.06838</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.36538796683366864)</t>
+  </si>
+  <si>
+    <t>(0.06838</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3653878394016034)</t>
+  </si>
+  <si>
+    <r>
+      <t>load</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"V_v3_2.jld2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"v3_2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>x_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a29) = (0.07496</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3678698626769097)</t>
+  </si>
+  <si>
+    <t>(0.07496</t>
+  </si>
+  <si>
+    <t>julia&gt; shockgridv</t>
+  </si>
+  <si>
+    <t>100×3 Matrix{Float64}:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.933526  0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.58723   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.88595   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.325189  0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5.19068   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.83548   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.259     0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.5981    0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.61577   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ⋮                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.32111   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.64634   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.305637  0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5.11715   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.81163   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.23992   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.0619    0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.57008   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.7652    0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.26539   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.63116   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.7863    0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.490578  0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.06972   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5.95928   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.939257  0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.8979    0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.65637   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.13259   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25.8889    0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.226602  0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.72603   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.85989   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.704772  0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.43636   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7.36742   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.17109   0.733333  0.455556</t>
+  </si>
+  <si>
+    <t>100-element view(::Matrix{Float64}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) with eltype Float64:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ⋮</t>
+  </si>
+  <si>
+    <t>10-element Vector{Float64}:</t>
+  </si>
+  <si>
+    <t>StableRNGs.LehmerRNG(state=0x000000000000000000000000000016b3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a29) = (0.07308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3706993942757759)</t>
+  </si>
+  <si>
+    <t>("price change"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pfv) = ("price change"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0)</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>3593 sec</t>
+  </si>
+  <si>
+    <t>4282.673104 seconds (3.42 M allocations: 241.908 MiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00% gc time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.646628 seconds (518.89 k allocations: 36.722 MiB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.275855 seconds (6.91 k allocations: 306.340 MiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58.08% gc time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.514382 seconds (389.07 M allocations: 134.659 GiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.53% gc time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a29) = (0.0768</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3624604121996738)</t>
+  </si>
+  <si>
+    <t>(0.0768</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a29) = (0.0924</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.2747131318102338</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3740875320228814]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4283892857354112)</t>
+  </si>
+  <si>
+    <t>4335 eec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a29) = (0.0925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1740234375]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4149301620323183)</t>
+  </si>
+  <si>
+    <t>(0.0925</t>
+  </si>
+  <si>
+    <t>8676.726291 seconds (6.56 M allocations: 447.321 MiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00% gc time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00% compilation time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.966800 seconds (769.10 k allocations: 48.770 MiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22.20% compilation time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.321099 seconds (133.22 k allocations: 313.457 MiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40.47% gc time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21.38% compilation time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48.386382 seconds (389.88 M allocations: 134.713 GiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.51% gc time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.89% compilation time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a29) = (0.08976</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.189954383918645]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.38711278002345584)</t>
+  </si>
+  <si>
+    <t>(0.08976</t>
+  </si>
+  <si>
+    <t>smax*1.5</t>
   </si>
 </sst>
 </file>
@@ -6647,7 +6989,7 @@
     <numFmt numFmtId="167" formatCode="0.000000000"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6719,6 +7061,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -6772,7 +7120,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6816,6 +7164,7 @@
     <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -7152,53 +7501,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7618346-73CF-924A-A545-AB2EF81466D3}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:BQ119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2253</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
       <c r="C5" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="D5" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J5" t="str">
+        <f>+G5</f>
+        <v>Main_v3</v>
+      </c>
+      <c r="K5" t="str">
+        <f>+J5</f>
+        <v>Main_v3</v>
+      </c>
+      <c r="M5" t="str">
+        <f>+J5</f>
+        <v>Main_v3</v>
+      </c>
+      <c r="N5" t="str">
+        <f>+M5</f>
+        <v>Main_v3</v>
+      </c>
+      <c r="O5" t="str">
+        <f>+N5</f>
+        <v>Main_v3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="32"/>
       <c r="C6" s="32" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="G6" s="32" t="str">
+        <f>+C6</f>
+        <v>error_Pn</v>
+      </c>
       <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="32"/>
+      <c r="J6" t="str">
+        <f>+G6</f>
+        <v>error_Pn</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" ref="K6:K24" si="0">+J6</f>
+        <v>error_Pn</v>
+      </c>
+      <c r="M6" t="str">
+        <f>+J6</f>
+        <v>error_Pn</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6:O12" si="1">+M6</f>
+        <v>error_Pn</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>error_Pn</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="32"/>
       <c r="C7" s="32" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="G7" s="32" t="s">
+        <v>2136</v>
+      </c>
       <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="32"/>
+      <c r="J7" t="str">
+        <f>+G7</f>
+        <v>smax*1.1</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>smax*1.1</v>
+      </c>
+      <c r="M7" t="str">
+        <f>+J7</f>
+        <v>smax*1.1</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>smax*1.1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>19</v>
       </c>
@@ -7208,12 +7645,37 @@
       <c r="D8" s="32">
         <v>100</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="32">
+        <v>100</v>
+      </c>
       <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="G8" s="32">
+        <v>100</v>
+      </c>
       <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="32"/>
+      <c r="J8">
+        <f t="shared" ref="J8:J24" si="2">+G8</f>
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M12" si="3">+J8</f>
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
         <v>18</v>
       </c>
@@ -7223,12 +7685,37 @@
       <c r="D9" s="32">
         <v>20</v>
       </c>
-      <c r="E9" s="32"/>
+      <c r="E9" s="32">
+        <v>20</v>
+      </c>
       <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="G9" s="32">
+        <v>15</v>
+      </c>
       <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="32"/>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
         <v>8</v>
       </c>
@@ -7238,12 +7725,37 @@
       <c r="D10" s="32">
         <v>90</v>
       </c>
-      <c r="E10" s="32"/>
+      <c r="E10" s="32">
+        <v>90</v>
+      </c>
       <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="G10" s="32">
+        <v>90</v>
+      </c>
       <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="32"/>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>21</v>
       </c>
@@ -7253,12 +7765,37 @@
       <c r="D11" s="32">
         <v>0.98984640076795305</v>
       </c>
-      <c r="E11" s="32"/>
+      <c r="E11" s="32">
+        <v>0.98984640076795305</v>
+      </c>
       <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="G11" s="32">
+        <v>0.98984640076795305</v>
+      </c>
       <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="32"/>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.98984640076795305</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.98984640076795305</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0.98984640076795305</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0.98984640076795305</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.98984640076795305</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>1</v>
       </c>
@@ -7268,12 +7805,37 @@
       <c r="D12" s="32">
         <v>4</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="32">
+        <v>4</v>
+      </c>
       <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="G12" s="32">
+        <v>4</v>
+      </c>
       <c r="H12" s="32"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="32"/>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
         <v>2</v>
       </c>
@@ -7283,12 +7845,32 @@
       <c r="D13" s="32">
         <v>2.5</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="32">
+        <v>2.5</v>
+      </c>
       <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="G13" s="32">
+        <v>2.5</v>
+      </c>
       <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="32"/>
+      <c r="J13" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="M13">
+        <v>1.5</v>
+      </c>
+      <c r="N13">
+        <v>1.5</v>
+      </c>
+      <c r="O13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
         <v>3</v>
       </c>
@@ -7298,12 +7880,37 @@
       <c r="D14" s="32">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E14" s="32"/>
+      <c r="E14" s="32">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="G14" s="32">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="32"/>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M24" si="4">+J14</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:O24" si="5">+M14</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O14">
+        <f>+N14</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>4</v>
       </c>
@@ -7313,12 +7920,37 @@
       <c r="D15" s="32">
         <v>0.75</v>
       </c>
-      <c r="E15" s="32"/>
+      <c r="E15" s="32">
+        <v>0.75</v>
+      </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="G15" s="32">
+        <v>0.75</v>
+      </c>
       <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="32"/>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>9</v>
       </c>
@@ -7328,12 +7960,37 @@
       <c r="D16" s="32">
         <v>1.2</v>
       </c>
-      <c r="E16" s="32"/>
+      <c r="E16" s="32">
+        <v>1.2</v>
+      </c>
       <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="G16" s="32">
+        <v>1.2</v>
+      </c>
       <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="32"/>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="32" t="s">
         <v>1907</v>
       </c>
@@ -7343,14 +8000,39 @@
       <c r="D17" s="32" t="s">
         <v>2002</v>
       </c>
-      <c r="E17" s="32"/>
+      <c r="E17" s="32" t="s">
+        <v>2002</v>
+      </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="G17" s="32" t="s">
+        <v>2002</v>
+      </c>
       <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="32"/>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>35 + 14days</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>35 + 14days</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="4"/>
+        <v>35 + 14days</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="5"/>
+        <v>35 + 14days</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="5"/>
+        <v>35 + 14days</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="C18" s="32">
         <v>0.73329999999999995</v>
@@ -7359,12 +8041,38 @@
         <f>+C18</f>
         <v>0.73329999999999995</v>
       </c>
-      <c r="E18" s="32"/>
+      <c r="E18" s="32">
+        <f>+D18</f>
+        <v>0.73329999999999995</v>
+      </c>
       <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="G18" s="32">
+        <v>0.73329999999999995</v>
+      </c>
       <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="32"/>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>0.73329999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="32" t="s">
         <v>1998</v>
       </c>
@@ -7374,12 +8082,37 @@
       <c r="D19" s="32">
         <v>0</v>
       </c>
-      <c r="E19" s="32"/>
+      <c r="E19" s="32">
+        <v>0</v>
+      </c>
       <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="G19" s="32">
+        <v>0</v>
+      </c>
       <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="32"/>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>1999</v>
       </c>
@@ -7389,14 +8122,39 @@
       <c r="D20" s="32" t="s">
         <v>2003</v>
       </c>
-      <c r="E20" s="32"/>
+      <c r="E20" s="32" t="s">
+        <v>2003</v>
+      </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="G20" s="32" t="s">
+        <v>2003</v>
+      </c>
       <c r="H20" s="32"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="32"/>
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v>10 + 14days</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>10 + 14days</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="4"/>
+        <v>10 + 14days</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="5"/>
+        <v>10 + 14days</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="5"/>
+        <v>10 + 14days</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="32" t="s">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
@@ -7404,8 +8162,29 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="32"/>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="32" t="s">
         <v>2000</v>
       </c>
@@ -7415,12 +8194,37 @@
       <c r="D22" s="32">
         <v>0</v>
       </c>
-      <c r="E22" s="32"/>
+      <c r="E22" s="32">
+        <v>0</v>
+      </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="G22" s="32">
+        <v>0</v>
+      </c>
       <c r="H22" s="32"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="32"/>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>2001</v>
       </c>
@@ -7430,12 +8234,37 @@
       <c r="D23" s="32">
         <v>1</v>
       </c>
-      <c r="E23" s="32"/>
+      <c r="E23" s="32">
+        <v>1</v>
+      </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="G23" s="32">
+        <v>1</v>
+      </c>
       <c r="H23" s="32"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="32"/>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="32" t="s">
         <v>1908</v>
       </c>
@@ -7445,430 +8274,1403 @@
       <c r="D24" s="32">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E24" s="32"/>
+      <c r="E24" s="32">
+        <v>1</v>
+      </c>
       <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G24" s="32">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H24" s="32">
+        <v>1</v>
+      </c>
+      <c r="I24" s="32"/>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="32" t="s">
-        <v>2169</v>
+        <v>2172</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>2175</v>
-      </c>
-      <c r="E25" s="32"/>
+        <v>2178</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>2183</v>
+      </c>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="C26" s="32" t="str">
+        <f>+C5</f>
+        <v>Main_v2</v>
+      </c>
+      <c r="E26" s="32" t="str">
+        <f>+D5</f>
+        <v>Main_v3</v>
+      </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="32"/>
       <c r="C27" s="32" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>2172</v>
-      </c>
-      <c r="E27" s="32"/>
+        <v>2175</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2184</v>
+      </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="32" t="s">
         <v>616</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2232</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2248</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" t="s">
+        <v>2249</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2254</v>
+      </c>
+      <c r="N28" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E29" t="s">
+        <v>442</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2065</v>
+      </c>
+      <c r="H29" t="s">
+        <v>442</v>
+      </c>
+      <c r="I29" s="32"/>
+      <c r="J29" t="s">
+        <v>2250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>442</v>
+      </c>
+      <c r="N29" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="32" t="s">
         <v>2027</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="C30">
+        <v>1.94147960211225</v>
+      </c>
+      <c r="D30" s="32">
+        <v>0.283929332722056</v>
+      </c>
+      <c r="E30">
+        <v>0.23203124999999999</v>
+      </c>
       <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>0.283929332722056</v>
+      </c>
+      <c r="H30">
+        <v>0.23203124999999999</v>
+      </c>
+      <c r="I30" s="32"/>
+      <c r="J30">
+        <v>1.8992151108288999</v>
+      </c>
+      <c r="K30">
+        <v>0.23203124999999999</v>
+      </c>
+      <c r="N30">
+        <v>0.23203124999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="32" t="s">
         <v>2028</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="C31">
+        <v>1.48894857771862</v>
+      </c>
+      <c r="D31" s="32">
+        <v>0.469814219473698</v>
+      </c>
+      <c r="E31">
+        <v>0.41622473723084802</v>
+      </c>
       <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>0.469814219473698</v>
+      </c>
+      <c r="H31">
+        <v>0.41622473723084802</v>
+      </c>
+      <c r="I31" s="32"/>
+      <c r="J31">
+        <v>0.85183692307477199</v>
+      </c>
+      <c r="K31">
+        <v>1.44083211528294</v>
+      </c>
+      <c r="N31">
+        <v>0.61449095295048395</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="32" t="s">
         <v>2029</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="C32">
+        <v>0.67489481564271203</v>
+      </c>
+      <c r="D32">
+        <v>9.8699174822405006E-2</v>
+      </c>
+      <c r="E32">
+        <v>5.8007812499999999E-2</v>
+      </c>
       <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>9.8699174822405006E-2</v>
+      </c>
+      <c r="H32">
+        <v>5.8007812499999999E-2</v>
+      </c>
+      <c r="I32" s="32"/>
+      <c r="J32">
+        <v>0.52995395928797195</v>
+      </c>
+      <c r="K32">
+        <v>5.8007812499999901E-2</v>
+      </c>
+      <c r="N32">
+        <v>5.8007812499999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>2030</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="C33" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2031</v>
+      </c>
       <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>2066</v>
+      </c>
+      <c r="H33">
+        <v>0.17402343749999999</v>
+      </c>
+      <c r="I33" s="32"/>
+      <c r="J33" t="s">
+        <v>2251</v>
+      </c>
+      <c r="K33" t="s">
+        <v>2255</v>
+      </c>
+      <c r="N33" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>0.46717994214247799</v>
+      </c>
+      <c r="D34">
+        <v>0.467181032131611</v>
+      </c>
+      <c r="E34">
+        <v>0.42008475523906902</v>
+      </c>
+      <c r="F34" s="32">
+        <f>+E34-D34</f>
+        <v>-4.7096276892541977E-2</v>
+      </c>
+      <c r="G34">
+        <v>0.48149754969368003</v>
+      </c>
+      <c r="H34">
+        <v>0.41850180135567799</v>
+      </c>
+      <c r="I34" s="32">
+        <f t="shared" ref="I31:I60" si="6">+H34-G34</f>
+        <v>-6.2995748338002033E-2</v>
+      </c>
+      <c r="J34">
+        <v>0.51143323527879403</v>
+      </c>
+      <c r="K34">
+        <v>0.42447010795318302</v>
+      </c>
+      <c r="L34">
+        <f>+K34-J34</f>
+        <v>-8.6963127325611012E-2</v>
+      </c>
+      <c r="N34">
+        <v>0.41902955763864302</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>1.7009929329136799</v>
+      </c>
+      <c r="D35">
+        <v>1.7009916515515899</v>
+      </c>
+      <c r="E35">
+        <v>1.7600713867570399</v>
+      </c>
+      <c r="F35" s="32">
+        <f t="shared" ref="F35:F60" si="7">+E35-D35</f>
+        <v>5.9079735205449957E-2</v>
+      </c>
+      <c r="G35">
+        <v>1.68774023529657</v>
+      </c>
+      <c r="H35">
+        <v>1.75038432935508</v>
+      </c>
+      <c r="I35" s="32">
+        <f t="shared" si="6"/>
+        <v>6.2644094058510014E-2</v>
+      </c>
+      <c r="J35">
+        <v>1.6467513825159199</v>
+      </c>
+      <c r="K35">
+        <v>1.7246617307918699</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35:L60" si="8">+K35-J35</f>
+        <v>7.7910348275950003E-2</v>
+      </c>
+      <c r="N35">
+        <v>1.7383011010178699</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="32" t="s">
         <v>2015</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>0.38632507302272601</v>
+      </c>
+      <c r="D36">
+        <v>0.386326147875585</v>
+      </c>
+      <c r="E36">
+        <v>0.37944053853514098</v>
+      </c>
+      <c r="F36" s="32">
+        <f t="shared" si="7"/>
+        <v>-6.8856093404440211E-3</v>
+      </c>
+      <c r="G36">
+        <v>0.39634873465453702</v>
+      </c>
+      <c r="H36">
+        <v>0.37629996302505497</v>
+      </c>
+      <c r="I36" s="32">
+        <f t="shared" si="6"/>
+        <v>-2.0048771629482043E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.39167311053488302</v>
+      </c>
+      <c r="K36">
+        <v>0.337406739354845</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="8"/>
+        <v>-5.426637118003802E-2</v>
+      </c>
+      <c r="N36">
+        <v>0.35037311954628297</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="32" t="s">
         <v>2016</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>9.7820827408218902E-2</v>
+      </c>
+      <c r="D37">
+        <v>9.7820869706559496E-2</v>
+      </c>
+      <c r="E37">
+        <v>6.1422117663053603E-2</v>
+      </c>
+      <c r="F37" s="32">
+        <f t="shared" si="7"/>
+        <v>-3.6398752043505893E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.102496591640379</v>
+      </c>
+      <c r="H37">
+        <v>6.2161667357442302E-2</v>
+      </c>
+      <c r="I37" s="32">
+        <f t="shared" si="6"/>
+        <v>-4.0334924282936696E-2</v>
+      </c>
+      <c r="J37">
+        <v>0.13836720434768801</v>
+      </c>
+      <c r="K37">
+        <v>0.10281618861373799</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="8"/>
+        <v>-3.5551015733950017E-2</v>
+      </c>
+      <c r="N37">
+        <v>8.5721587950024103E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="32" t="s">
         <v>2017</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>8.1517356173515798E-2</v>
+      </c>
+      <c r="D38">
+        <v>8.1517391422132907E-2</v>
+      </c>
+      <c r="E38">
+        <v>6.1422117663053603E-2</v>
+      </c>
+      <c r="F38" s="32">
+        <f t="shared" si="7"/>
+        <v>-2.0095273759079303E-2</v>
+      </c>
+      <c r="G38">
+        <v>8.5413826366982706E-2</v>
+      </c>
+      <c r="H38">
+        <v>6.2161667357442302E-2</v>
+      </c>
+      <c r="I38" s="32">
+        <f t="shared" si="6"/>
+        <v>-2.3252159009540405E-2</v>
+      </c>
+      <c r="J38">
+        <v>0.115306003623073</v>
+      </c>
+      <c r="K38">
+        <v>0.10281618861373799</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="8"/>
+        <v>-1.2489815009335006E-2</v>
+      </c>
+      <c r="N38">
+        <v>8.5721587950024103E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="32" t="s">
         <v>1844</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>9.3370837153772299E-2</v>
+      </c>
+      <c r="D39">
+        <v>9.3370878742537605E-2</v>
+      </c>
+      <c r="E39">
+        <v>5.8467872503370703E-2</v>
+      </c>
+      <c r="F39" s="32">
+        <f t="shared" si="7"/>
+        <v>-3.4903006239166902E-2</v>
+      </c>
+      <c r="G39">
+        <v>9.7793932916587195E-2</v>
+      </c>
+      <c r="H39">
+        <v>5.93031796459609E-2</v>
+      </c>
+      <c r="I39" s="32">
+        <f t="shared" si="6"/>
+        <v>-3.8490753270626295E-2</v>
+      </c>
+      <c r="J39">
+        <v>0.13165519112771401</v>
+      </c>
+      <c r="K39">
+        <v>9.7829379183892007E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="8"/>
+        <v>-3.3825811943822004E-2</v>
+      </c>
+      <c r="N39">
+        <v>8.1601683840467801E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="32" t="s">
         <v>2018</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>7.7809030961476899E-2</v>
+      </c>
+      <c r="D40">
+        <v>7.7809065618781301E-2</v>
+      </c>
+      <c r="E40">
+        <v>5.8467872503370703E-2</v>
+      </c>
+      <c r="F40" s="32">
+        <f t="shared" si="7"/>
+        <v>-1.9341193115410597E-2</v>
+      </c>
+      <c r="G40">
+        <v>8.1494944097156005E-2</v>
+      </c>
+      <c r="H40">
+        <v>5.93031796459609E-2</v>
+      </c>
+      <c r="I40" s="32">
+        <f t="shared" si="6"/>
+        <v>-2.2191764451195105E-2</v>
+      </c>
+      <c r="J40">
+        <v>0.109712659273095</v>
+      </c>
+      <c r="K40">
+        <v>9.7829379183892007E-2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="8"/>
+        <v>-1.1883280089202988E-2</v>
+      </c>
+      <c r="N40">
+        <v>8.1601683840467801E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="32" t="s">
         <v>2019</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>0.11544426150129999</v>
+      </c>
+      <c r="D41">
+        <v>0.115444003397507</v>
+      </c>
+      <c r="E41">
+        <v>9.5175454057433495E-2</v>
+      </c>
+      <c r="F41" s="37">
+        <f t="shared" si="7"/>
+        <v>-2.0268549340073508E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.117543575625583</v>
+      </c>
+      <c r="H41">
+        <v>9.6431398707151894E-2</v>
+      </c>
+      <c r="I41" s="32">
+        <f t="shared" si="6"/>
+        <v>-2.1112176918431105E-2</v>
+      </c>
+      <c r="J41">
+        <v>0.14486581940988399</v>
+      </c>
+      <c r="K41">
+        <v>0.14836784229967501</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="8"/>
+        <v>3.5020228897910122E-3</v>
+      </c>
+      <c r="N41">
+        <v>0.128946997609029</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="32" t="s">
         <v>2020</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>0.223235668705247</v>
+      </c>
+      <c r="D42">
+        <v>0.22323499379996301</v>
+      </c>
+      <c r="E42">
+        <v>0.15872223145931499</v>
+      </c>
+      <c r="F42" s="32">
+        <f t="shared" si="7"/>
+        <v>-6.4512762340648011E-2</v>
+      </c>
+      <c r="G42">
+        <v>0.22551059574163501</v>
+      </c>
+      <c r="H42">
+        <v>0.16002362703310999</v>
+      </c>
+      <c r="I42" s="32">
+        <f t="shared" si="6"/>
+        <v>-6.5486968708525023E-2</v>
+      </c>
+      <c r="J42">
+        <v>0.27724947495812702</v>
+      </c>
+      <c r="K42">
+        <v>0.247729723496976</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="8"/>
+        <v>-2.9519751461151017E-2</v>
+      </c>
+      <c r="N42">
+        <v>0.21496697593481601</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="31" t="s">
         <v>2021</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>0.192870167931433</v>
+      </c>
+      <c r="D43">
+        <v>0.19286955753156201</v>
+      </c>
+      <c r="E43">
+        <v>0.15690794834636199</v>
+      </c>
+      <c r="F43" s="32">
+        <f t="shared" si="7"/>
+        <v>-3.5961609185200027E-2</v>
+      </c>
+      <c r="G43">
+        <v>0.194931791585776</v>
+      </c>
+      <c r="H43">
+        <v>0.15824594953375601</v>
+      </c>
+      <c r="I43" s="32">
+        <f t="shared" si="6"/>
+        <v>-3.6685842052019996E-2</v>
+      </c>
+      <c r="J43">
+        <v>0.24018773926085701</v>
+      </c>
+      <c r="K43">
+        <v>0.24622322814230099</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="8"/>
+        <v>6.0354888814439789E-3</v>
+      </c>
+      <c r="N43">
+        <v>0.21370816489904901</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="32" t="s">
         <v>2064</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>0.377545907126562</v>
+      </c>
+      <c r="D44">
+        <v>0.37754696672815502</v>
+      </c>
+      <c r="E44">
+        <v>0.37055872246528299</v>
+      </c>
+      <c r="F44" s="32">
+        <f t="shared" si="7"/>
+        <v>-6.9882442628720343E-3</v>
+      </c>
+      <c r="G44">
+        <v>0.387262439473673</v>
+      </c>
+      <c r="H44">
+        <v>0.36764623822161102</v>
+      </c>
+      <c r="I44" s="32">
+        <f t="shared" si="6"/>
+        <v>-1.9616201252061982E-2</v>
+      </c>
+      <c r="J44">
+        <v>0.382748037435791</v>
+      </c>
+      <c r="K44">
+        <v>0.32971656383134401</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="8"/>
+        <v>-5.3031473604446988E-2</v>
+      </c>
+      <c r="N44">
+        <v>0.34239073568609502</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="32" t="s">
         <v>2022</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>0.46303654622089602</v>
+      </c>
+      <c r="D45">
+        <v>0.463037304177839</v>
+      </c>
+      <c r="E45">
+        <v>0.49037727022918798</v>
+      </c>
+      <c r="F45" s="37">
+        <f t="shared" si="7"/>
+        <v>2.7339966051348974E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.46521014221957502</v>
+      </c>
+      <c r="H45">
+        <v>0.492065198803252</v>
+      </c>
+      <c r="I45" s="32">
+        <f t="shared" si="6"/>
+        <v>2.6855056583676984E-2</v>
+      </c>
+      <c r="J45">
+        <v>0.44995530477438</v>
+      </c>
+      <c r="K45">
+        <v>0.44587015282572201</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="8"/>
+        <v>-4.0851519486579946E-3</v>
+      </c>
+      <c r="N45">
+        <v>0.46066823341424501</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="32" t="s">
         <v>2023</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>0.78222102361798196</v>
+      </c>
+      <c r="D46">
+        <v>0.78222171694151599</v>
+      </c>
+      <c r="E46">
+        <v>0.85632366631428602</v>
+      </c>
+      <c r="F46" s="32">
+        <f t="shared" si="7"/>
+        <v>7.4101949372770037E-2</v>
+      </c>
+      <c r="G46">
+        <v>0.779689555563709</v>
+      </c>
+      <c r="H46">
+        <v>0.85453715141835196</v>
+      </c>
+      <c r="I46" s="32">
+        <f t="shared" si="6"/>
+        <v>7.4847595854642957E-2</v>
+      </c>
+      <c r="J46">
+        <v>0.73066147058585695</v>
+      </c>
+      <c r="K46">
+        <v>0.75820261828532498</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="8"/>
+        <v>2.7541147699468027E-2</v>
+      </c>
+      <c r="N46">
+        <v>0.79242446228627605</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="31" t="s">
         <v>2024</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>0.80712983206856603</v>
+      </c>
+      <c r="D47">
+        <v>0.80713044246843602</v>
+      </c>
+      <c r="E47">
+        <v>0.84309205165363699</v>
+      </c>
+      <c r="F47" s="32">
+        <f t="shared" si="7"/>
+        <v>3.5961609185200971E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.805068208414223</v>
+      </c>
+      <c r="H47">
+        <v>0.84175405046624296</v>
+      </c>
+      <c r="I47" s="32">
+        <f t="shared" si="6"/>
+        <v>3.6685842052019968E-2</v>
+      </c>
+      <c r="J47">
+        <v>0.75981226073914199</v>
+      </c>
+      <c r="K47">
+        <v>0.75377677185769798</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="8"/>
+        <v>-6.0354888814440066E-3</v>
+      </c>
+      <c r="N47">
+        <v>0.78629183510095002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="32" t="s">
         <v>2009</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>5.3688832566900699E-2</v>
+      </c>
+      <c r="D48">
+        <v>5.3688865035447703E-2</v>
+      </c>
+      <c r="E48">
+        <v>3.4152169747640702E-2</v>
+      </c>
+      <c r="F48" s="32">
+        <f t="shared" si="7"/>
+        <v>-1.9536695287807E-2</v>
+      </c>
+      <c r="G48">
+        <v>5.6404524863443301E-2</v>
+      </c>
+      <c r="H48">
+        <v>3.4327424730253603E-2</v>
+      </c>
+      <c r="I48" s="32">
+        <f t="shared" si="6"/>
+        <v>-2.2077100133189698E-2</v>
+      </c>
+      <c r="J48">
+        <v>8.3704989674267899E-2</v>
+      </c>
+      <c r="K48">
+        <v>6.2036798682017801E-2</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="8"/>
+        <v>-2.1668190992250098E-2</v>
+      </c>
+      <c r="N48">
+        <v>4.9602294182676802E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="32" t="s">
         <v>2025</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="32" t="s">
+      <c r="C49">
+        <v>4.4740693805750603E-2</v>
+      </c>
+      <c r="D49">
+        <v>4.4740720862873097E-2</v>
+      </c>
+      <c r="E49">
+        <v>3.4152169747640702E-2</v>
+      </c>
+      <c r="F49" s="32">
+        <f t="shared" si="7"/>
+        <v>-1.0588551115232395E-2</v>
+      </c>
+      <c r="G49">
+        <v>4.7003770719536E-2</v>
+      </c>
+      <c r="H49">
+        <v>3.4327424730253603E-2</v>
+      </c>
+      <c r="I49" s="32">
+        <f t="shared" si="6"/>
+        <v>-1.2676345989282398E-2</v>
+      </c>
+      <c r="J49">
+        <v>6.9754158061889907E-2</v>
+      </c>
+      <c r="K49">
+        <v>6.2036798682017801E-2</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="8"/>
+        <v>-7.717359379872106E-3</v>
+      </c>
+      <c r="N49">
+        <v>4.9602294182676802E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C50" s="7">
+        <v>6.3804434010115804E-2</v>
+      </c>
+      <c r="D50" s="7">
+        <v>6.38044576870712E-2</v>
+      </c>
+      <c r="E50" s="7">
+        <v>5.5025229802448498E-2</v>
+      </c>
+      <c r="F50" s="31">
+        <f t="shared" si="7"/>
+        <v>-8.779227884622702E-3</v>
+      </c>
+      <c r="G50" s="7">
+        <v>6.5738963255077901E-2</v>
+      </c>
+      <c r="H50" s="7">
+        <v>5.4598179141251098E-2</v>
+      </c>
+      <c r="I50" s="31">
+        <f t="shared" si="6"/>
+        <v>-1.1140784113826803E-2</v>
+      </c>
+      <c r="J50">
+        <v>0.108052227021872</v>
+      </c>
+      <c r="K50">
+        <v>0.110055955031023</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="8"/>
+        <v>2.0037280091509957E-3</v>
+      </c>
+      <c r="M50"/>
+      <c r="N50">
+        <v>8.47882132817291E-2</v>
+      </c>
+      <c r="O50"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B51" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>0.124091596210054</v>
+      </c>
+      <c r="D51">
+        <v>0.124091508168215</v>
+      </c>
+      <c r="E51">
+        <v>9.1322275822271107E-2</v>
+      </c>
+      <c r="F51" s="32">
+        <f t="shared" si="7"/>
+        <v>-3.2769232345943894E-2</v>
+      </c>
+      <c r="G51">
+        <v>0.12669300765120001</v>
+      </c>
+      <c r="H51">
+        <v>9.0611493753620695E-2</v>
+      </c>
+      <c r="I51" s="32">
+        <f t="shared" si="6"/>
+        <v>-3.6081513897579312E-2</v>
+      </c>
+      <c r="J51">
+        <v>0.19808184061228301</v>
+      </c>
+      <c r="K51">
+        <v>0.17619443312331301</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="8"/>
+        <v>-2.1887407488970001E-2</v>
+      </c>
+      <c r="N51">
+        <v>0.13767407485743499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="32" t="s">
-        <v>2162</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2164</v>
+      </c>
+      <c r="C52">
+        <v>0.59077359872381396</v>
+      </c>
+      <c r="D52">
+        <v>0.59077415780711096</v>
+      </c>
+      <c r="E52">
+        <v>0.60500254590859504</v>
+      </c>
+      <c r="F52" s="32">
+        <f t="shared" si="7"/>
+        <v>1.422838810148408E-2</v>
+      </c>
+      <c r="G52">
+        <v>0.59273741672908797</v>
+      </c>
+      <c r="H52">
+        <v>0.59715047798960696</v>
+      </c>
+      <c r="I52" s="32">
+        <f t="shared" si="6"/>
+        <v>4.4130612605189912E-3</v>
+      </c>
+      <c r="J52">
+        <v>0.74551563805139298</v>
+      </c>
+      <c r="K52">
+        <v>0.74129676093933095</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="8"/>
+        <v>-4.2188771120620361E-3</v>
+      </c>
+      <c r="N52">
+        <v>0.66585508360287204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="32" t="s">
         <v>2011</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="32" t="s">
+      <c r="C53">
+        <v>0.10606938895752099</v>
+      </c>
+      <c r="D53">
+        <v>0.10606952811584699</v>
+      </c>
+      <c r="E53">
+        <v>0.105555440906968</v>
+      </c>
+      <c r="F53" s="32">
+        <f t="shared" si="7"/>
+        <v>-5.1408720887899384E-4</v>
+      </c>
+      <c r="G53">
+        <v>0.10932773441571</v>
+      </c>
+      <c r="H53">
+        <v>0.104116218295203</v>
+      </c>
+      <c r="I53" s="32">
+        <f t="shared" si="6"/>
+        <v>-5.2115161205070065E-3</v>
+      </c>
+      <c r="J53">
+        <v>0.10694226980428</v>
+      </c>
+      <c r="K53">
+        <v>9.2116453956311503E-2</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="8"/>
+        <v>-1.4825815847968493E-2</v>
+      </c>
+      <c r="N53">
+        <v>9.6030594575652398E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C54" s="7">
+        <v>0.15005507320078401</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0.15005513970908299</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.16774468386896199</v>
+      </c>
+      <c r="F54" s="31">
+        <f t="shared" si="7"/>
+        <v>1.7689544159879E-2</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0.153160941103997</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0.16489594728601401</v>
+      </c>
+      <c r="I54" s="31">
+        <f t="shared" si="6"/>
+        <v>1.1735006182017005E-2</v>
+      </c>
+      <c r="J54">
+        <v>0.14776446224593501</v>
+      </c>
+      <c r="K54">
+        <v>0.14624482062771199</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="8"/>
+        <v>-1.5196416182230166E-3</v>
+      </c>
+      <c r="M54"/>
+      <c r="N54">
+        <v>0.151640187520443</v>
+      </c>
+      <c r="O54"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B55" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>0.241296370623613</v>
+      </c>
+      <c r="D55">
+        <v>0.24129633123338801</v>
+      </c>
+      <c r="E55">
+        <v>0.27654758685463798</v>
+      </c>
+      <c r="F55" s="32">
+        <f t="shared" si="7"/>
+        <v>3.5251255621249977E-2</v>
+      </c>
+      <c r="G55">
+        <v>0.24400638662457499</v>
+      </c>
+      <c r="H55">
+        <v>0.27184891844605302</v>
+      </c>
+      <c r="I55" s="32">
+        <f t="shared" si="6"/>
+        <v>2.7842531821478028E-2</v>
+      </c>
+      <c r="J55">
+        <v>0.23030744512312701</v>
+      </c>
+      <c r="K55">
+        <v>0.23873572890900399</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="8"/>
+        <v>8.4282837858769832E-3</v>
+      </c>
+      <c r="N55">
+        <v>0.24943870516601899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B56" s="32" t="s">
-        <v>2163</v>
-      </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2165</v>
+      </c>
+      <c r="C56">
+        <v>0.31611346882616997</v>
+      </c>
+      <c r="D56">
+        <v>0.316113223198278</v>
+      </c>
+      <c r="E56">
+        <v>0.33085022165932099</v>
+      </c>
+      <c r="F56" s="32">
+        <f t="shared" si="7"/>
+        <v>1.4736998461042983E-2</v>
+      </c>
+      <c r="G56">
+        <v>0.32133306497106601</v>
+      </c>
+      <c r="H56">
+        <v>0.32523554464447602</v>
+      </c>
+      <c r="I56" s="32">
+        <f t="shared" si="6"/>
+        <v>3.9024796734100087E-3</v>
+      </c>
+      <c r="J56">
+        <v>0.31355262317844801</v>
+      </c>
+      <c r="K56">
+        <v>0.31322898578630298</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="8"/>
+        <v>-3.236373921450264E-4</v>
+      </c>
+      <c r="N56">
+        <v>0.315257026645338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B57" s="32" t="s">
         <v>2026</v>
       </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>0.15975822152442201</v>
+      </c>
+      <c r="D57">
+        <v>0.159758393151294</v>
+      </c>
+      <c r="E57">
+        <v>0.13970761065460899</v>
+      </c>
+      <c r="F57" s="32">
+        <f t="shared" si="7"/>
+        <v>-2.0050782496685016E-2</v>
+      </c>
+      <c r="G57">
+        <v>0.165732259279154</v>
+      </c>
+      <c r="H57">
+        <v>0.138443643025456</v>
+      </c>
+      <c r="I57" s="32">
+        <f t="shared" si="6"/>
+        <v>-2.7288616253697995E-2</v>
+      </c>
+      <c r="J57">
+        <v>0.19064725947854799</v>
+      </c>
+      <c r="K57">
+        <v>0.15415325263832899</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="8"/>
+        <v>-3.6494006840219001E-2</v>
+      </c>
+      <c r="N57">
+        <v>0.145632888758329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B58" s="32" t="s">
         <v>2013</v>
       </c>
-      <c r="C58" s="37"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>0.15081008276327201</v>
+      </c>
+      <c r="D58">
+        <v>0.15081024897872</v>
+      </c>
+      <c r="E58">
+        <v>0.13970761065460899</v>
+      </c>
+      <c r="F58" s="32">
+        <f t="shared" si="7"/>
+        <v>-1.1102638324111014E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.15633150513524599</v>
+      </c>
+      <c r="H58">
+        <v>0.138443643025456</v>
+      </c>
+      <c r="I58" s="32">
+        <f t="shared" si="6"/>
+        <v>-1.7887862109789987E-2</v>
+      </c>
+      <c r="J58">
+        <v>0.17669642786617001</v>
+      </c>
+      <c r="K58">
+        <v>0.15415325263832899</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="8"/>
+        <v>-2.2543175227841022E-2</v>
+      </c>
+      <c r="N58">
+        <v>0.145632888758329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="31" t="s">
         <v>588</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C59" s="7">
+        <v>0.2138595072109</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0.21385959739615401</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.222769913671411</v>
+      </c>
+      <c r="F59" s="31">
+        <f t="shared" si="7"/>
+        <v>8.9103162752569853E-3</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0.218899904359075</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0.21949412642726501</v>
+      </c>
+      <c r="I59" s="31">
+        <f t="shared" si="6"/>
+        <v>5.9422206819001455E-4</v>
+      </c>
+      <c r="J59">
+        <v>0.25581668926780798</v>
+      </c>
+      <c r="K59">
+        <v>0.25630077565873499</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="8"/>
+        <v>4.8408639092700767E-4</v>
+      </c>
+      <c r="M59"/>
+      <c r="N59">
+        <v>0.23642840080217201</v>
+      </c>
+      <c r="O59"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B60" s="32" t="s">
         <v>589</v>
       </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>0.36538796683366798</v>
+      </c>
+      <c r="D60">
+        <v>0.36538783940160302</v>
+      </c>
+      <c r="E60">
+        <v>0.36786986267690902</v>
+      </c>
+      <c r="F60" s="32">
+        <f t="shared" si="7"/>
+        <v>2.4820232753060001E-3</v>
+      </c>
+      <c r="G60">
+        <v>0.37069939427577497</v>
+      </c>
+      <c r="H60">
+        <v>0.36246041219967301</v>
+      </c>
+      <c r="I60" s="32">
+        <f t="shared" si="6"/>
+        <v>-8.2389820761019639E-3</v>
+      </c>
+      <c r="J60">
+        <v>0.42838928573541102</v>
+      </c>
+      <c r="K60">
+        <v>0.41493016203231797</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="8"/>
+        <v>-1.3459123703093046E-2</v>
+      </c>
+      <c r="N60">
+        <v>0.38711278002345501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="B62">
         <v>9.3033099999999994E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="B63">
         <v>0.26560850000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="B64">
         <v>0.25940410000000003</v>
@@ -7876,7 +9678,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="B65">
         <v>0.28791820000000001</v>
@@ -7884,7 +9686,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="B66">
         <v>-4.0059199999999996E-2</v>
@@ -7892,7 +9694,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="B67">
         <v>4.1829099999999952E-2</v>
@@ -7900,7 +9702,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="B68">
         <v>-0.11242230000000003</v>
@@ -7908,7 +9710,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="B69">
         <v>3.2932899999999987E-2</v>
@@ -8006,6 +9808,2592 @@
       </c>
       <c r="F80">
         <v>0.11242229999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2037</v>
+      </c>
+      <c r="I85" t="s">
+        <v>2038</v>
+      </c>
+      <c r="J85" t="s">
+        <v>2039</v>
+      </c>
+      <c r="K85" t="s">
+        <v>2040</v>
+      </c>
+      <c r="L85" t="s">
+        <v>2041</v>
+      </c>
+      <c r="M85" t="s">
+        <v>2042</v>
+      </c>
+      <c r="N85" t="s">
+        <v>2043</v>
+      </c>
+      <c r="O85" t="s">
+        <v>2044</v>
+      </c>
+      <c r="P85" t="s">
+        <v>2045</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>2046</v>
+      </c>
+      <c r="R85" t="s">
+        <v>2047</v>
+      </c>
+      <c r="S85" t="s">
+        <v>2048</v>
+      </c>
+      <c r="T85" t="s">
+        <v>2049</v>
+      </c>
+      <c r="U85" t="s">
+        <v>2050</v>
+      </c>
+      <c r="V85" t="s">
+        <v>2051</v>
+      </c>
+      <c r="W85" t="s">
+        <v>2052</v>
+      </c>
+      <c r="X85" t="s">
+        <v>2053</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>2055</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>2160</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>2179</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>2065</v>
+      </c>
+      <c r="AG85">
+        <v>1.94147960211225</v>
+      </c>
+      <c r="AH85">
+        <v>1.48894857771862</v>
+      </c>
+      <c r="AI85">
+        <v>0.67489481564271203</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>2163</v>
+      </c>
+      <c r="AK85">
+        <v>0.46717994214247799</v>
+      </c>
+      <c r="AL85">
+        <v>1.7009929329136799</v>
+      </c>
+      <c r="AM85">
+        <v>0.38632507302272601</v>
+      </c>
+      <c r="AN85">
+        <v>9.7820827408218902E-2</v>
+      </c>
+      <c r="AO85">
+        <v>8.1517356173515798E-2</v>
+      </c>
+      <c r="AP85">
+        <v>9.3370837153772299E-2</v>
+      </c>
+      <c r="AQ85">
+        <v>7.7809030961476899E-2</v>
+      </c>
+      <c r="AR85">
+        <v>0.11544426150129999</v>
+      </c>
+      <c r="AS85">
+        <v>0.223235668705247</v>
+      </c>
+      <c r="AT85">
+        <v>0.192870167931433</v>
+      </c>
+      <c r="AU85">
+        <v>0.377545907126562</v>
+      </c>
+      <c r="AV85">
+        <v>0.46303654622089602</v>
+      </c>
+      <c r="AW85">
+        <v>0.78222102361798196</v>
+      </c>
+      <c r="AX85">
+        <v>0.80712983206856603</v>
+      </c>
+      <c r="AY85">
+        <v>5.3688832566900699E-2</v>
+      </c>
+      <c r="AZ85">
+        <v>4.4740693805750603E-2</v>
+      </c>
+      <c r="BA85">
+        <v>6.3804434010115804E-2</v>
+      </c>
+      <c r="BB85">
+        <v>0.124091596210054</v>
+      </c>
+      <c r="BC85">
+        <v>0.59077359872381396</v>
+      </c>
+      <c r="BD85">
+        <v>0.10606938895752099</v>
+      </c>
+      <c r="BE85">
+        <v>0.15005507320078401</v>
+      </c>
+      <c r="BF85">
+        <v>0.241296370623613</v>
+      </c>
+      <c r="BG85">
+        <v>0.31611346882616997</v>
+      </c>
+      <c r="BH85">
+        <v>0.15975822152442201</v>
+      </c>
+      <c r="BI85">
+        <v>0.15081008276327201</v>
+      </c>
+      <c r="BJ85">
+        <v>0.2138595072109</v>
+      </c>
+      <c r="BK85" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C86">
+        <v>1.94147960211225</v>
+      </c>
+      <c r="D86">
+        <v>1.48894857771862</v>
+      </c>
+      <c r="E86">
+        <v>0.67489481564271203</v>
+      </c>
+      <c r="F86" t="s">
+        <v>2163</v>
+      </c>
+      <c r="I86">
+        <v>0.46717994214247799</v>
+      </c>
+      <c r="J86">
+        <v>1.7009929329136799</v>
+      </c>
+      <c r="K86">
+        <v>0.38632507302272601</v>
+      </c>
+      <c r="L86">
+        <v>9.7820827408218902E-2</v>
+      </c>
+      <c r="M86">
+        <v>8.1517356173515798E-2</v>
+      </c>
+      <c r="N86">
+        <v>9.3370837153772299E-2</v>
+      </c>
+      <c r="O86">
+        <v>7.7809030961476899E-2</v>
+      </c>
+      <c r="P86">
+        <v>0.11544426150129999</v>
+      </c>
+      <c r="Q86">
+        <v>0.223235668705247</v>
+      </c>
+      <c r="R86">
+        <v>0.192870167931433</v>
+      </c>
+      <c r="S86">
+        <v>0.377545907126562</v>
+      </c>
+      <c r="T86">
+        <v>0.46303654622089602</v>
+      </c>
+      <c r="U86">
+        <v>0.78222102361798196</v>
+      </c>
+      <c r="V86">
+        <v>0.80712983206856603</v>
+      </c>
+      <c r="W86">
+        <v>5.3688832566900699E-2</v>
+      </c>
+      <c r="X86">
+        <v>4.4740693805750603E-2</v>
+      </c>
+      <c r="Y86">
+        <v>6.3804434010115804E-2</v>
+      </c>
+      <c r="Z86">
+        <v>0.124091596210054</v>
+      </c>
+      <c r="AA86">
+        <v>0.59077359872381396</v>
+      </c>
+      <c r="AB86">
+        <v>0.10606938895752099</v>
+      </c>
+      <c r="AC86">
+        <v>0.15005507320078401</v>
+      </c>
+      <c r="AD86">
+        <v>0.241296370623613</v>
+      </c>
+      <c r="AE86">
+        <v>0.31611346882616997</v>
+      </c>
+      <c r="AF86">
+        <v>0.15975822152442201</v>
+      </c>
+      <c r="AG86">
+        <v>0.15081008276327201</v>
+      </c>
+      <c r="AH86">
+        <v>0.2138595072109</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A88" s="32" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F88" t="s">
+        <v>2037</v>
+      </c>
+      <c r="I88" t="s">
+        <v>2038</v>
+      </c>
+      <c r="J88" t="s">
+        <v>2039</v>
+      </c>
+      <c r="K88" t="s">
+        <v>2040</v>
+      </c>
+      <c r="L88" t="s">
+        <v>2041</v>
+      </c>
+      <c r="M88" t="s">
+        <v>2042</v>
+      </c>
+      <c r="N88" t="s">
+        <v>2043</v>
+      </c>
+      <c r="O88" t="s">
+        <v>2044</v>
+      </c>
+      <c r="P88" t="s">
+        <v>2045</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>2046</v>
+      </c>
+      <c r="R88" t="s">
+        <v>2047</v>
+      </c>
+      <c r="S88" t="s">
+        <v>2048</v>
+      </c>
+      <c r="T88" t="s">
+        <v>2049</v>
+      </c>
+      <c r="U88" t="s">
+        <v>2050</v>
+      </c>
+      <c r="V88" t="s">
+        <v>2051</v>
+      </c>
+      <c r="W88" t="s">
+        <v>2052</v>
+      </c>
+      <c r="X88" t="s">
+        <v>2053</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>2055</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>2160</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>2179</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>2065</v>
+      </c>
+      <c r="AG88">
+        <v>0.283929332722056</v>
+      </c>
+      <c r="AH88">
+        <v>0.469814219473698</v>
+      </c>
+      <c r="AI88">
+        <v>9.8699174822405006E-2</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>2066</v>
+      </c>
+      <c r="AK88">
+        <v>0.467181032131611</v>
+      </c>
+      <c r="AL88">
+        <v>1.7009916515515899</v>
+      </c>
+      <c r="AM88">
+        <v>0.386326147875585</v>
+      </c>
+      <c r="AN88">
+        <v>9.7820869706559496E-2</v>
+      </c>
+      <c r="AO88">
+        <v>8.1517391422132907E-2</v>
+      </c>
+      <c r="AP88">
+        <v>9.3370878742537605E-2</v>
+      </c>
+      <c r="AQ88">
+        <v>7.7809065618781301E-2</v>
+      </c>
+      <c r="AR88">
+        <v>0.115444003397507</v>
+      </c>
+      <c r="AS88">
+        <v>0.22323499379996301</v>
+      </c>
+      <c r="AT88">
+        <v>0.19286955753156201</v>
+      </c>
+      <c r="AU88">
+        <v>0.37754696672815502</v>
+      </c>
+      <c r="AV88">
+        <v>0.463037304177839</v>
+      </c>
+      <c r="AW88">
+        <v>0.78222171694151599</v>
+      </c>
+      <c r="AX88">
+        <v>0.80713044246843602</v>
+      </c>
+      <c r="AY88">
+        <v>5.3688865035447703E-2</v>
+      </c>
+      <c r="AZ88">
+        <v>4.4740720862873097E-2</v>
+      </c>
+      <c r="BA88">
+        <v>6.38044576870712E-2</v>
+      </c>
+      <c r="BB88">
+        <v>0.124091508168215</v>
+      </c>
+      <c r="BC88">
+        <v>0.59077415780711096</v>
+      </c>
+      <c r="BD88">
+        <v>0.10606952811584699</v>
+      </c>
+      <c r="BE88">
+        <v>0.15005513970908299</v>
+      </c>
+      <c r="BF88">
+        <v>0.24129633123338801</v>
+      </c>
+      <c r="BG88">
+        <v>0.316113223198278</v>
+      </c>
+      <c r="BH88">
+        <v>0.159758393151294</v>
+      </c>
+      <c r="BI88">
+        <v>0.15081024897872</v>
+      </c>
+      <c r="BJ88">
+        <v>0.21385959739615401</v>
+      </c>
+      <c r="BK88" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A89" s="32" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C89" s="32">
+        <v>0.283929332722056</v>
+      </c>
+      <c r="D89" s="32">
+        <v>0.469814219473698</v>
+      </c>
+      <c r="E89">
+        <v>9.8699174822405006E-2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I89">
+        <v>0.467181032131611</v>
+      </c>
+      <c r="J89">
+        <v>1.7009916515515899</v>
+      </c>
+      <c r="K89">
+        <v>0.386326147875585</v>
+      </c>
+      <c r="L89">
+        <v>9.7820869706559496E-2</v>
+      </c>
+      <c r="M89">
+        <v>8.1517391422132907E-2</v>
+      </c>
+      <c r="N89">
+        <v>9.3370878742537605E-2</v>
+      </c>
+      <c r="O89">
+        <v>7.7809065618781301E-2</v>
+      </c>
+      <c r="P89">
+        <v>0.115444003397507</v>
+      </c>
+      <c r="Q89">
+        <v>0.22323499379996301</v>
+      </c>
+      <c r="R89">
+        <v>0.19286955753156201</v>
+      </c>
+      <c r="S89">
+        <v>0.37754696672815502</v>
+      </c>
+      <c r="T89">
+        <v>0.463037304177839</v>
+      </c>
+      <c r="U89">
+        <v>0.78222171694151599</v>
+      </c>
+      <c r="V89">
+        <v>0.80713044246843602</v>
+      </c>
+      <c r="W89">
+        <v>5.3688865035447703E-2</v>
+      </c>
+      <c r="X89">
+        <v>4.4740720862873097E-2</v>
+      </c>
+      <c r="Y89">
+        <v>6.38044576870712E-2</v>
+      </c>
+      <c r="Z89">
+        <v>0.124091508168215</v>
+      </c>
+      <c r="AA89">
+        <v>0.59077415780711096</v>
+      </c>
+      <c r="AB89">
+        <v>0.10606952811584699</v>
+      </c>
+      <c r="AC89">
+        <v>0.15005513970908299</v>
+      </c>
+      <c r="AD89">
+        <v>0.24129633123338801</v>
+      </c>
+      <c r="AE89">
+        <v>0.316113223198278</v>
+      </c>
+      <c r="AF89">
+        <v>0.159758393151294</v>
+      </c>
+      <c r="AG89">
+        <v>0.15081024897872</v>
+      </c>
+      <c r="AH89">
+        <v>0.21385959739615401</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F91" t="s">
+        <v>2037</v>
+      </c>
+      <c r="I91" t="s">
+        <v>2038</v>
+      </c>
+      <c r="J91" t="s">
+        <v>2039</v>
+      </c>
+      <c r="K91" t="s">
+        <v>2040</v>
+      </c>
+      <c r="L91" t="s">
+        <v>2041</v>
+      </c>
+      <c r="M91" t="s">
+        <v>2042</v>
+      </c>
+      <c r="N91" t="s">
+        <v>2043</v>
+      </c>
+      <c r="O91" t="s">
+        <v>2044</v>
+      </c>
+      <c r="P91" t="s">
+        <v>2045</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>2046</v>
+      </c>
+      <c r="R91" t="s">
+        <v>2047</v>
+      </c>
+      <c r="S91" t="s">
+        <v>2048</v>
+      </c>
+      <c r="T91" t="s">
+        <v>2049</v>
+      </c>
+      <c r="U91" t="s">
+        <v>2050</v>
+      </c>
+      <c r="V91" t="s">
+        <v>2051</v>
+      </c>
+      <c r="W91" t="s">
+        <v>2052</v>
+      </c>
+      <c r="X91" t="s">
+        <v>2053</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>2055</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>2160</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>2185</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG91">
+        <v>0.23203124999999999</v>
+      </c>
+      <c r="AH91">
+        <v>0.41622473723084802</v>
+      </c>
+      <c r="AI91">
+        <v>5.8007812499999999E-2</v>
+      </c>
+      <c r="AJ91" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AK91">
+        <v>0.42008475523906902</v>
+      </c>
+      <c r="AL91">
+        <v>1.7600713867570399</v>
+      </c>
+      <c r="AM91">
+        <v>0.37944053853514098</v>
+      </c>
+      <c r="AN91">
+        <v>6.1422117663053603E-2</v>
+      </c>
+      <c r="AO91">
+        <v>6.1422117663053603E-2</v>
+      </c>
+      <c r="AP91">
+        <v>5.8467872503370703E-2</v>
+      </c>
+      <c r="AQ91">
+        <v>5.8467872503370703E-2</v>
+      </c>
+      <c r="AR91">
+        <v>9.5175454057433495E-2</v>
+      </c>
+      <c r="AS91">
+        <v>0.15872223145931499</v>
+      </c>
+      <c r="AT91">
+        <v>0.15690794834636199</v>
+      </c>
+      <c r="AU91">
+        <v>0.37055872246528299</v>
+      </c>
+      <c r="AV91">
+        <v>0.49037727022918798</v>
+      </c>
+      <c r="AW91">
+        <v>0.85632366631428602</v>
+      </c>
+      <c r="AX91">
+        <v>0.84309205165363699</v>
+      </c>
+      <c r="AY91">
+        <v>3.4152169747640702E-2</v>
+      </c>
+      <c r="AZ91">
+        <v>3.4152169747640702E-2</v>
+      </c>
+      <c r="BA91">
+        <v>5.5025229802448498E-2</v>
+      </c>
+      <c r="BB91">
+        <v>9.1322275822271107E-2</v>
+      </c>
+      <c r="BC91">
+        <v>0.60500254590859504</v>
+      </c>
+      <c r="BD91">
+        <v>0.105555440906968</v>
+      </c>
+      <c r="BE91">
+        <v>0.16774468386896199</v>
+      </c>
+      <c r="BF91">
+        <v>0.27654758685463798</v>
+      </c>
+      <c r="BG91">
+        <v>0.33085022165932099</v>
+      </c>
+      <c r="BH91">
+        <v>0.13970761065460899</v>
+      </c>
+      <c r="BI91">
+        <v>0.13970761065460899</v>
+      </c>
+      <c r="BJ91">
+        <v>0.222769913671411</v>
+      </c>
+      <c r="BK91" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B92" t="s">
+        <v>442</v>
+      </c>
+      <c r="C92">
+        <v>0.23203124999999999</v>
+      </c>
+      <c r="D92">
+        <v>0.41622473723084802</v>
+      </c>
+      <c r="E92">
+        <v>5.8007812499999999E-2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I92">
+        <v>0.42008475523906902</v>
+      </c>
+      <c r="J92">
+        <v>1.7600713867570399</v>
+      </c>
+      <c r="K92">
+        <v>0.37944053853514098</v>
+      </c>
+      <c r="L92">
+        <v>6.1422117663053603E-2</v>
+      </c>
+      <c r="M92">
+        <v>6.1422117663053603E-2</v>
+      </c>
+      <c r="N92">
+        <v>5.8467872503370703E-2</v>
+      </c>
+      <c r="O92">
+        <v>5.8467872503370703E-2</v>
+      </c>
+      <c r="P92">
+        <v>9.5175454057433495E-2</v>
+      </c>
+      <c r="Q92">
+        <v>0.15872223145931499</v>
+      </c>
+      <c r="R92">
+        <v>0.15690794834636199</v>
+      </c>
+      <c r="S92">
+        <v>0.37055872246528299</v>
+      </c>
+      <c r="T92">
+        <v>0.49037727022918798</v>
+      </c>
+      <c r="U92">
+        <v>0.85632366631428602</v>
+      </c>
+      <c r="V92">
+        <v>0.84309205165363699</v>
+      </c>
+      <c r="W92">
+        <v>3.4152169747640702E-2</v>
+      </c>
+      <c r="X92">
+        <v>3.4152169747640702E-2</v>
+      </c>
+      <c r="Y92">
+        <v>5.5025229802448498E-2</v>
+      </c>
+      <c r="Z92">
+        <v>9.1322275822271107E-2</v>
+      </c>
+      <c r="AA92">
+        <v>0.60500254590859504</v>
+      </c>
+      <c r="AB92">
+        <v>0.105555440906968</v>
+      </c>
+      <c r="AC92">
+        <v>0.16774468386896199</v>
+      </c>
+      <c r="AD92">
+        <v>0.27654758685463798</v>
+      </c>
+      <c r="AE92">
+        <v>0.33085022165932099</v>
+      </c>
+      <c r="AF92">
+        <v>0.13970761065460899</v>
+      </c>
+      <c r="AG92">
+        <v>0.13970761065460899</v>
+      </c>
+      <c r="AH92">
+        <v>0.222769913671411</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F94" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G94" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H94" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I94" t="s">
+        <v>2040</v>
+      </c>
+      <c r="J94" t="s">
+        <v>2041</v>
+      </c>
+      <c r="K94" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L94" t="s">
+        <v>2043</v>
+      </c>
+      <c r="M94" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N94" t="s">
+        <v>2045</v>
+      </c>
+      <c r="O94" t="s">
+        <v>2046</v>
+      </c>
+      <c r="P94" t="s">
+        <v>2047</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>2048</v>
+      </c>
+      <c r="R94" t="s">
+        <v>2049</v>
+      </c>
+      <c r="S94" t="s">
+        <v>2050</v>
+      </c>
+      <c r="T94" t="s">
+        <v>2051</v>
+      </c>
+      <c r="U94" t="s">
+        <v>2052</v>
+      </c>
+      <c r="V94" t="s">
+        <v>2053</v>
+      </c>
+      <c r="W94" t="s">
+        <v>2054</v>
+      </c>
+      <c r="X94" t="s">
+        <v>2055</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>2056</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>2160</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>2232</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>2065</v>
+      </c>
+      <c r="AE94">
+        <v>0.283929332722056</v>
+      </c>
+      <c r="AF94">
+        <v>0.469814219473698</v>
+      </c>
+      <c r="AG94">
+        <v>9.8699174822405006E-2</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>2066</v>
+      </c>
+      <c r="AI94">
+        <v>0.48149754969368003</v>
+      </c>
+      <c r="AJ94">
+        <v>1.68774023529657</v>
+      </c>
+      <c r="AK94">
+        <v>0.39634873465453702</v>
+      </c>
+      <c r="AL94">
+        <v>0.102496591640379</v>
+      </c>
+      <c r="AM94">
+        <v>8.5413826366982706E-2</v>
+      </c>
+      <c r="AN94">
+        <v>9.7793932916587195E-2</v>
+      </c>
+      <c r="AO94">
+        <v>8.1494944097156005E-2</v>
+      </c>
+      <c r="AP94">
+        <v>0.117543575625583</v>
+      </c>
+      <c r="AQ94">
+        <v>0.22551059574163501</v>
+      </c>
+      <c r="AR94">
+        <v>0.194931791585776</v>
+      </c>
+      <c r="AS94">
+        <v>0.387262439473673</v>
+      </c>
+      <c r="AT94">
+        <v>0.46521014221957502</v>
+      </c>
+      <c r="AU94">
+        <v>0.779689555563709</v>
+      </c>
+      <c r="AV94">
+        <v>0.805068208414223</v>
+      </c>
+      <c r="AW94">
+        <v>5.6404524863443301E-2</v>
+      </c>
+      <c r="AX94">
+        <v>4.7003770719536E-2</v>
+      </c>
+      <c r="AY94">
+        <v>6.5738963255077901E-2</v>
+      </c>
+      <c r="AZ94">
+        <v>0.12669300765120001</v>
+      </c>
+      <c r="BA94">
+        <v>0.59273741672908797</v>
+      </c>
+      <c r="BB94">
+        <v>0.10932773441571</v>
+      </c>
+      <c r="BC94">
+        <v>0.153160941103997</v>
+      </c>
+      <c r="BD94">
+        <v>0.24400638662457499</v>
+      </c>
+      <c r="BE94">
+        <v>0.32133306497106601</v>
+      </c>
+      <c r="BF94">
+        <v>0.165732259279154</v>
+      </c>
+      <c r="BG94">
+        <v>0.15633150513524599</v>
+      </c>
+      <c r="BH94">
+        <v>0.218899904359075</v>
+      </c>
+      <c r="BI94" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E95">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="F95">
+        <v>0.45555555555555499</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="98" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F100" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H100" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I100" t="s">
+        <v>2040</v>
+      </c>
+      <c r="J100" t="s">
+        <v>2041</v>
+      </c>
+      <c r="K100" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L100" t="s">
+        <v>2043</v>
+      </c>
+      <c r="M100" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N100" t="s">
+        <v>2045</v>
+      </c>
+      <c r="O100" t="s">
+        <v>2046</v>
+      </c>
+      <c r="P100" t="s">
+        <v>2047</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>2048</v>
+      </c>
+      <c r="R100" t="s">
+        <v>2049</v>
+      </c>
+      <c r="S100" t="s">
+        <v>2050</v>
+      </c>
+      <c r="T100" t="s">
+        <v>2051</v>
+      </c>
+      <c r="U100" t="s">
+        <v>2052</v>
+      </c>
+      <c r="V100" t="s">
+        <v>2053</v>
+      </c>
+      <c r="W100" t="s">
+        <v>2054</v>
+      </c>
+      <c r="X100" t="s">
+        <v>2055</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>2056</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>2160</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>2246</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE100">
+        <v>0.23203124999999999</v>
+      </c>
+      <c r="AF100">
+        <v>0.41622473723084802</v>
+      </c>
+      <c r="AG100">
+        <v>5.8007812499999999E-2</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AI100">
+        <v>0.41850180135567799</v>
+      </c>
+      <c r="AJ100">
+        <v>1.75038432935508</v>
+      </c>
+      <c r="AK100">
+        <v>0.37629996302505497</v>
+      </c>
+      <c r="AL100">
+        <v>6.2161667357442302E-2</v>
+      </c>
+      <c r="AM100">
+        <v>6.2161667357442302E-2</v>
+      </c>
+      <c r="AN100">
+        <v>5.93031796459609E-2</v>
+      </c>
+      <c r="AO100">
+        <v>5.93031796459609E-2</v>
+      </c>
+      <c r="AP100">
+        <v>9.6431398707151894E-2</v>
+      </c>
+      <c r="AQ100">
+        <v>0.16002362703310999</v>
+      </c>
+      <c r="AR100">
+        <v>0.15824594953375601</v>
+      </c>
+      <c r="AS100">
+        <v>0.36764623822161102</v>
+      </c>
+      <c r="AT100">
+        <v>0.492065198803252</v>
+      </c>
+      <c r="AU100">
+        <v>0.85453715141835196</v>
+      </c>
+      <c r="AV100">
+        <v>0.84175405046624296</v>
+      </c>
+      <c r="AW100">
+        <v>3.4327424730253603E-2</v>
+      </c>
+      <c r="AX100">
+        <v>3.4327424730253603E-2</v>
+      </c>
+      <c r="AY100">
+        <v>5.4598179141251098E-2</v>
+      </c>
+      <c r="AZ100">
+        <v>9.0611493753620695E-2</v>
+      </c>
+      <c r="BA100">
+        <v>0.59715047798960696</v>
+      </c>
+      <c r="BB100">
+        <v>0.104116218295203</v>
+      </c>
+      <c r="BC100">
+        <v>0.16489594728601401</v>
+      </c>
+      <c r="BD100">
+        <v>0.27184891844605302</v>
+      </c>
+      <c r="BE100">
+        <v>0.32523554464447602</v>
+      </c>
+      <c r="BF100">
+        <v>0.138443643025456</v>
+      </c>
+      <c r="BG100">
+        <v>0.138443643025456</v>
+      </c>
+      <c r="BH100">
+        <v>0.21949412642726501</v>
+      </c>
+      <c r="BI100" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B101" t="s">
+        <v>442</v>
+      </c>
+      <c r="C101">
+        <v>0.23203124999999999</v>
+      </c>
+      <c r="D101">
+        <v>0.41622473723084802</v>
+      </c>
+      <c r="E101">
+        <v>5.8007812499999999E-2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>2031</v>
+      </c>
+      <c r="G101">
+        <v>0.41850180135567799</v>
+      </c>
+      <c r="H101">
+        <v>1.75038432935508</v>
+      </c>
+      <c r="I101">
+        <v>0.37629996302505497</v>
+      </c>
+      <c r="J101">
+        <v>6.2161667357442302E-2</v>
+      </c>
+      <c r="K101">
+        <v>6.2161667357442302E-2</v>
+      </c>
+      <c r="L101">
+        <v>5.93031796459609E-2</v>
+      </c>
+      <c r="M101">
+        <v>5.93031796459609E-2</v>
+      </c>
+      <c r="N101">
+        <v>9.6431398707151894E-2</v>
+      </c>
+      <c r="O101">
+        <v>0.16002362703310999</v>
+      </c>
+      <c r="P101">
+        <v>0.15824594953375601</v>
+      </c>
+      <c r="Q101">
+        <v>0.36764623822161102</v>
+      </c>
+      <c r="R101">
+        <v>0.492065198803252</v>
+      </c>
+      <c r="S101">
+        <v>0.85453715141835196</v>
+      </c>
+      <c r="T101">
+        <v>0.84175405046624296</v>
+      </c>
+      <c r="U101">
+        <v>3.4327424730253603E-2</v>
+      </c>
+      <c r="V101">
+        <v>3.4327424730253603E-2</v>
+      </c>
+      <c r="W101">
+        <v>5.4598179141251098E-2</v>
+      </c>
+      <c r="X101">
+        <v>9.0611493753620695E-2</v>
+      </c>
+      <c r="Y101">
+        <v>0.59715047798960696</v>
+      </c>
+      <c r="Z101">
+        <v>0.104116218295203</v>
+      </c>
+      <c r="AA101">
+        <v>0.16489594728601401</v>
+      </c>
+      <c r="AB101">
+        <v>0.27184891844605302</v>
+      </c>
+      <c r="AC101">
+        <v>0.32523554464447602</v>
+      </c>
+      <c r="AD101">
+        <v>0.138443643025456</v>
+      </c>
+      <c r="AE101">
+        <v>0.138443643025456</v>
+      </c>
+      <c r="AF101">
+        <v>0.21949412642726501</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="105" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F105" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G105" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H105" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I105" t="s">
+        <v>2040</v>
+      </c>
+      <c r="J105" t="s">
+        <v>2041</v>
+      </c>
+      <c r="K105" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L105" t="s">
+        <v>2043</v>
+      </c>
+      <c r="M105" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N105" t="s">
+        <v>2045</v>
+      </c>
+      <c r="O105" t="s">
+        <v>2046</v>
+      </c>
+      <c r="P105" t="s">
+        <v>2047</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>2048</v>
+      </c>
+      <c r="R105" t="s">
+        <v>2049</v>
+      </c>
+      <c r="S105" t="s">
+        <v>2050</v>
+      </c>
+      <c r="T105" t="s">
+        <v>2051</v>
+      </c>
+      <c r="U105" t="s">
+        <v>2052</v>
+      </c>
+      <c r="V105" t="s">
+        <v>2053</v>
+      </c>
+      <c r="W105" t="s">
+        <v>2054</v>
+      </c>
+      <c r="X105" t="s">
+        <v>2055</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>2056</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>2160</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>2249</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>2250</v>
+      </c>
+      <c r="AE105">
+        <v>1.8992151108288999</v>
+      </c>
+      <c r="AF105">
+        <v>0.85183692307477199</v>
+      </c>
+      <c r="AG105">
+        <v>0.52995395928797195</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>2251</v>
+      </c>
+      <c r="AI105">
+        <v>0.51143323527879403</v>
+      </c>
+      <c r="AJ105">
+        <v>1.6467513825159199</v>
+      </c>
+      <c r="AK105">
+        <v>0.39167311053488302</v>
+      </c>
+      <c r="AL105">
+        <v>0.13836720434768801</v>
+      </c>
+      <c r="AM105">
+        <v>0.115306003623073</v>
+      </c>
+      <c r="AN105">
+        <v>0.13165519112771401</v>
+      </c>
+      <c r="AO105">
+        <v>0.109712659273095</v>
+      </c>
+      <c r="AP105">
+        <v>0.14486581940988399</v>
+      </c>
+      <c r="AQ105">
+        <v>0.27724947495812702</v>
+      </c>
+      <c r="AR105">
+        <v>0.24018773926085701</v>
+      </c>
+      <c r="AS105">
+        <v>0.382748037435791</v>
+      </c>
+      <c r="AT105">
+        <v>0.44995530477438</v>
+      </c>
+      <c r="AU105">
+        <v>0.73066147058585695</v>
+      </c>
+      <c r="AV105">
+        <v>0.75981226073914199</v>
+      </c>
+      <c r="AW105">
+        <v>8.3704989674267899E-2</v>
+      </c>
+      <c r="AX105">
+        <v>6.9754158061889907E-2</v>
+      </c>
+      <c r="AY105">
+        <v>0.108052227021872</v>
+      </c>
+      <c r="AZ105">
+        <v>0.19808184061228301</v>
+      </c>
+      <c r="BA105">
+        <v>0.74551563805139298</v>
+      </c>
+      <c r="BB105">
+        <v>0.10694226980428</v>
+      </c>
+      <c r="BC105">
+        <v>0.14776446224593501</v>
+      </c>
+      <c r="BD105">
+        <v>0.23030744512312701</v>
+      </c>
+      <c r="BE105">
+        <v>0.31355262317844801</v>
+      </c>
+      <c r="BF105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F106" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G106" t="s">
+        <v>2037</v>
+      </c>
+      <c r="H106" t="s">
+        <v>2038</v>
+      </c>
+      <c r="I106" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J106" t="s">
+        <v>2040</v>
+      </c>
+      <c r="K106" t="s">
+        <v>2041</v>
+      </c>
+      <c r="L106" t="s">
+        <v>2042</v>
+      </c>
+      <c r="M106" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N106" t="s">
+        <v>2044</v>
+      </c>
+      <c r="O106" t="s">
+        <v>2045</v>
+      </c>
+      <c r="P106" t="s">
+        <v>2046</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>2047</v>
+      </c>
+      <c r="R106" t="s">
+        <v>2048</v>
+      </c>
+      <c r="S106" t="s">
+        <v>2049</v>
+      </c>
+      <c r="T106" t="s">
+        <v>2050</v>
+      </c>
+      <c r="U106" t="s">
+        <v>2051</v>
+      </c>
+      <c r="V106" t="s">
+        <v>2052</v>
+      </c>
+      <c r="W106" t="s">
+        <v>2053</v>
+      </c>
+      <c r="X106" t="s">
+        <v>2054</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>2055</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>2160</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>2249</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>2250</v>
+      </c>
+      <c r="AF106">
+        <v>1.8992151108288999</v>
+      </c>
+      <c r="AG106">
+        <v>0.85183692307477199</v>
+      </c>
+      <c r="AH106">
+        <v>0.52995395928797195</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>2251</v>
+      </c>
+      <c r="AJ106">
+        <v>0.51143323527879403</v>
+      </c>
+      <c r="AK106">
+        <v>1.6467513825159199</v>
+      </c>
+      <c r="AL106">
+        <v>0.39167311053488302</v>
+      </c>
+      <c r="AM106">
+        <v>0.13836720434768801</v>
+      </c>
+      <c r="AN106">
+        <v>0.115306003623073</v>
+      </c>
+      <c r="AO106">
+        <v>0.13165519112771401</v>
+      </c>
+      <c r="AP106">
+        <v>0.109712659273095</v>
+      </c>
+      <c r="AQ106">
+        <v>0.14486581940988399</v>
+      </c>
+      <c r="AR106">
+        <v>0.27724947495812702</v>
+      </c>
+      <c r="AS106">
+        <v>0.24018773926085701</v>
+      </c>
+      <c r="AT106">
+        <v>0.382748037435791</v>
+      </c>
+      <c r="AU106">
+        <v>0.44995530477438</v>
+      </c>
+      <c r="AV106">
+        <v>0.73066147058585695</v>
+      </c>
+      <c r="AW106">
+        <v>0.75981226073914199</v>
+      </c>
+      <c r="AX106">
+        <v>8.3704989674267899E-2</v>
+      </c>
+      <c r="AY106">
+        <v>6.9754158061889907E-2</v>
+      </c>
+      <c r="AZ106">
+        <v>0.108052227021872</v>
+      </c>
+      <c r="BA106">
+        <v>0.19808184061228301</v>
+      </c>
+      <c r="BB106">
+        <v>0.74551563805139298</v>
+      </c>
+      <c r="BC106">
+        <v>0.10694226980428</v>
+      </c>
+      <c r="BD106">
+        <v>0.14776446224593501</v>
+      </c>
+      <c r="BE106">
+        <v>0.23030744512312701</v>
+      </c>
+      <c r="BF106">
+        <v>0.31355262317844801</v>
+      </c>
+      <c r="BG106">
+        <v>0.19064725947854799</v>
+      </c>
+      <c r="BH106">
+        <v>0.17669642786617001</v>
+      </c>
+      <c r="BI106">
+        <v>0.25581668926780798</v>
+      </c>
+      <c r="BJ106" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="107" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F107">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="G107">
+        <v>0.45555555555555499</v>
+      </c>
+      <c r="H107" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="I108" t="s">
+        <v>2032</v>
+      </c>
+      <c r="J108" t="s">
+        <v>2033</v>
+      </c>
+      <c r="K108" t="s">
+        <v>2034</v>
+      </c>
+      <c r="L108" t="s">
+        <v>2035</v>
+      </c>
+      <c r="M108" t="s">
+        <v>2036</v>
+      </c>
+      <c r="N108" t="s">
+        <v>2037</v>
+      </c>
+      <c r="O108" t="s">
+        <v>2038</v>
+      </c>
+      <c r="P108" t="s">
+        <v>2039</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>2040</v>
+      </c>
+      <c r="R108" t="s">
+        <v>2041</v>
+      </c>
+      <c r="S108" t="s">
+        <v>2042</v>
+      </c>
+      <c r="T108" t="s">
+        <v>2043</v>
+      </c>
+      <c r="U108" t="s">
+        <v>2044</v>
+      </c>
+      <c r="V108" t="s">
+        <v>2045</v>
+      </c>
+      <c r="W108" t="s">
+        <v>2046</v>
+      </c>
+      <c r="X108" t="s">
+        <v>2047</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>2048</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>2049</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>2050</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>2055</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>2160</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AK108" t="s">
+        <v>2254</v>
+      </c>
+      <c r="AL108" t="s">
+        <v>442</v>
+      </c>
+      <c r="AM108">
+        <v>0.23203124999999999</v>
+      </c>
+      <c r="AN108">
+        <v>1.44083211528294</v>
+      </c>
+      <c r="AO108">
+        <v>5.8007812499999901E-2</v>
+      </c>
+      <c r="AP108" t="s">
+        <v>2255</v>
+      </c>
+      <c r="AQ108">
+        <v>0.42447010795318302</v>
+      </c>
+      <c r="AR108">
+        <v>1.7246617307918699</v>
+      </c>
+      <c r="AS108">
+        <v>0.337406739354845</v>
+      </c>
+      <c r="AT108">
+        <v>0.10281618861373799</v>
+      </c>
+      <c r="AU108">
+        <v>0.10281618861373799</v>
+      </c>
+      <c r="AV108">
+        <v>9.7829379183892007E-2</v>
+      </c>
+      <c r="AW108">
+        <v>9.7829379183892007E-2</v>
+      </c>
+      <c r="AX108">
+        <v>0.14836784229967501</v>
+      </c>
+      <c r="AY108">
+        <v>0.247729723496976</v>
+      </c>
+      <c r="AZ108">
+        <v>0.24622322814230099</v>
+      </c>
+      <c r="BA108">
+        <v>0.32971656383134401</v>
+      </c>
+      <c r="BB108">
+        <v>0.44587015282572201</v>
+      </c>
+      <c r="BC108">
+        <v>0.75820261828532498</v>
+      </c>
+      <c r="BD108">
+        <v>0.75377677185769798</v>
+      </c>
+      <c r="BE108">
+        <v>6.2036798682017801E-2</v>
+      </c>
+      <c r="BF108">
+        <v>6.2036798682017801E-2</v>
+      </c>
+      <c r="BG108">
+        <v>0.110055955031023</v>
+      </c>
+      <c r="BH108">
+        <v>0.17619443312331301</v>
+      </c>
+      <c r="BI108">
+        <v>0.74129676093933095</v>
+      </c>
+      <c r="BJ108">
+        <v>9.2116453956311503E-2</v>
+      </c>
+      <c r="BK108">
+        <v>0.14624482062771199</v>
+      </c>
+      <c r="BL108">
+        <v>0.23873572890900399</v>
+      </c>
+      <c r="BM108">
+        <v>0.31322898578630298</v>
+      </c>
+      <c r="BN108">
+        <v>0.15415325263832899</v>
+      </c>
+      <c r="BO108">
+        <v>0.15415325263832899</v>
+      </c>
+      <c r="BP108">
+        <v>0.25630077565873499</v>
+      </c>
+      <c r="BQ108" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="I109" t="s">
+        <v>2257</v>
+      </c>
+      <c r="J109" t="s">
+        <v>442</v>
+      </c>
+      <c r="K109">
+        <v>0.23203124999999999</v>
+      </c>
+      <c r="L109">
+        <v>1.44083211528294</v>
+      </c>
+      <c r="M109">
+        <v>5.8007812499999901E-2</v>
+      </c>
+      <c r="N109" t="s">
+        <v>2255</v>
+      </c>
+      <c r="O109">
+        <v>0.42447010795318302</v>
+      </c>
+      <c r="P109">
+        <v>1.7246617307918699</v>
+      </c>
+      <c r="Q109">
+        <v>0.337406739354845</v>
+      </c>
+      <c r="R109">
+        <v>0.10281618861373799</v>
+      </c>
+      <c r="S109">
+        <v>0.10281618861373799</v>
+      </c>
+      <c r="T109">
+        <v>9.7829379183892007E-2</v>
+      </c>
+      <c r="U109">
+        <v>9.7829379183892007E-2</v>
+      </c>
+      <c r="V109">
+        <v>0.14836784229967501</v>
+      </c>
+      <c r="W109">
+        <v>0.247729723496976</v>
+      </c>
+      <c r="X109">
+        <v>0.24622322814230099</v>
+      </c>
+      <c r="Y109">
+        <v>0.32971656383134401</v>
+      </c>
+      <c r="Z109">
+        <v>0.44587015282572201</v>
+      </c>
+      <c r="AA109">
+        <v>0.75820261828532498</v>
+      </c>
+      <c r="AB109">
+        <v>0.75377677185769798</v>
+      </c>
+      <c r="AC109">
+        <v>6.2036798682017801E-2</v>
+      </c>
+      <c r="AD109">
+        <v>6.2036798682017801E-2</v>
+      </c>
+      <c r="AE109">
+        <v>0.110055955031023</v>
+      </c>
+      <c r="AF109">
+        <v>0.17619443312331301</v>
+      </c>
+      <c r="AG109">
+        <v>0.74129676093933095</v>
+      </c>
+      <c r="AH109">
+        <v>9.2116453956311503E-2</v>
+      </c>
+      <c r="AI109">
+        <v>0.14624482062771199</v>
+      </c>
+      <c r="AJ109">
+        <v>0.23873572890900399</v>
+      </c>
+      <c r="AK109">
+        <v>0.31322898578630298</v>
+      </c>
+      <c r="AL109">
+        <v>0.15415325263832899</v>
+      </c>
+      <c r="AM109">
+        <v>0.15415325263832899</v>
+      </c>
+      <c r="AN109">
+        <v>0.25630077565873499</v>
+      </c>
+      <c r="AO109" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="111" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="112" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="113" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="115" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F115" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G115" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H115" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I115" t="s">
+        <v>2040</v>
+      </c>
+      <c r="J115" t="s">
+        <v>2041</v>
+      </c>
+      <c r="K115" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L115" t="s">
+        <v>2043</v>
+      </c>
+      <c r="M115" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N115" t="s">
+        <v>2045</v>
+      </c>
+      <c r="O115" t="s">
+        <v>2046</v>
+      </c>
+      <c r="P115" t="s">
+        <v>2047</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>2048</v>
+      </c>
+      <c r="R115" t="s">
+        <v>2049</v>
+      </c>
+      <c r="S115" t="s">
+        <v>2050</v>
+      </c>
+      <c r="T115" t="s">
+        <v>2051</v>
+      </c>
+      <c r="U115" t="s">
+        <v>2052</v>
+      </c>
+      <c r="V115" t="s">
+        <v>2053</v>
+      </c>
+      <c r="W115" t="s">
+        <v>2054</v>
+      </c>
+      <c r="X115" t="s">
+        <v>2055</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>2056</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>2160</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>2269</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE115">
+        <v>1.5866058452248499</v>
+      </c>
+      <c r="AF115">
+        <v>1.16633421657717</v>
+      </c>
+      <c r="AG115">
+        <v>0.39665146130621498</v>
+      </c>
+      <c r="AH115" t="s">
+        <v>2270</v>
+      </c>
+      <c r="AI115">
+        <v>0.41902955763864302</v>
+      </c>
+      <c r="AJ115">
+        <v>1.7383011010178699</v>
+      </c>
+      <c r="AK115">
+        <v>0.35037311954628297</v>
+      </c>
+      <c r="AL115">
+        <v>8.5721587950024103E-2</v>
+      </c>
+      <c r="AM115">
+        <v>8.5721587950024103E-2</v>
+      </c>
+      <c r="AN115">
+        <v>8.1601683840467801E-2</v>
+      </c>
+      <c r="AO115">
+        <v>8.1601683840467801E-2</v>
+      </c>
+      <c r="AP115">
+        <v>0.128946997609029</v>
+      </c>
+      <c r="AQ115">
+        <v>0.21496697593481601</v>
+      </c>
+      <c r="AR115">
+        <v>0.21370816489904901</v>
+      </c>
+      <c r="AS115">
+        <v>0.34239073568609502</v>
+      </c>
+      <c r="AT115">
+        <v>0.46066823341424501</v>
+      </c>
+      <c r="AU115">
+        <v>0.79242446228627605</v>
+      </c>
+      <c r="AV115">
+        <v>0.78629183510095002</v>
+      </c>
+      <c r="AW115">
+        <v>4.9602294182676802E-2</v>
+      </c>
+      <c r="AX115">
+        <v>4.9602294182676802E-2</v>
+      </c>
+      <c r="AY115">
+        <v>8.47882132817291E-2</v>
+      </c>
+      <c r="AZ115">
+        <v>0.13767407485743499</v>
+      </c>
+      <c r="BA115">
+        <v>0.66585508360287204</v>
+      </c>
+      <c r="BB115">
+        <v>9.6030594575652398E-2</v>
+      </c>
+      <c r="BC115">
+        <v>0.151640187520443</v>
+      </c>
+      <c r="BD115">
+        <v>0.24943870516601899</v>
+      </c>
+      <c r="BE115">
+        <v>0.315257026645338</v>
+      </c>
+      <c r="BF115">
+        <v>0.145632888758329</v>
+      </c>
+      <c r="BG115">
+        <v>0.145632888758329</v>
+      </c>
+      <c r="BH115">
+        <v>0.23642840080217201</v>
+      </c>
+      <c r="BI115" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E116">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="F116">
+        <v>0.45555555555555499</v>
+      </c>
+      <c r="G116" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F118" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G118" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H118" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I118" t="s">
+        <v>2040</v>
+      </c>
+      <c r="J118" t="s">
+        <v>2041</v>
+      </c>
+      <c r="K118" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L118" t="s">
+        <v>2043</v>
+      </c>
+      <c r="M118" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N118" t="s">
+        <v>2045</v>
+      </c>
+      <c r="O118" t="s">
+        <v>2046</v>
+      </c>
+      <c r="P118" t="s">
+        <v>2047</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>2048</v>
+      </c>
+      <c r="R118" t="s">
+        <v>2049</v>
+      </c>
+      <c r="S118" t="s">
+        <v>2050</v>
+      </c>
+      <c r="T118" t="s">
+        <v>2051</v>
+      </c>
+      <c r="U118" t="s">
+        <v>2052</v>
+      </c>
+      <c r="V118" t="s">
+        <v>2053</v>
+      </c>
+      <c r="W118" t="s">
+        <v>2054</v>
+      </c>
+      <c r="X118" t="s">
+        <v>2055</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>2056</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>2160</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>2269</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE118">
+        <v>0.23203124999999999</v>
+      </c>
+      <c r="AF118">
+        <v>0.61449095295048395</v>
+      </c>
+      <c r="AG118">
+        <v>5.8007812499999999E-2</v>
+      </c>
+      <c r="AH118" t="s">
+        <v>2255</v>
+      </c>
+      <c r="AI118">
+        <v>0.41902955763864302</v>
+      </c>
+      <c r="AJ118">
+        <v>1.7383011010178699</v>
+      </c>
+      <c r="AK118">
+        <v>0.35037311954628297</v>
+      </c>
+      <c r="AL118">
+        <v>8.5721587950024103E-2</v>
+      </c>
+      <c r="AM118">
+        <v>8.5721587950024103E-2</v>
+      </c>
+      <c r="AN118">
+        <v>8.1601683840467801E-2</v>
+      </c>
+      <c r="AO118">
+        <v>8.1601683840467801E-2</v>
+      </c>
+      <c r="AP118">
+        <v>0.128946997609029</v>
+      </c>
+      <c r="AQ118">
+        <v>0.21496697593481601</v>
+      </c>
+      <c r="AR118">
+        <v>0.21370816489904901</v>
+      </c>
+      <c r="AS118">
+        <v>0.34239073568609502</v>
+      </c>
+      <c r="AT118">
+        <v>0.46066823341424501</v>
+      </c>
+      <c r="AU118">
+        <v>0.79242446228627605</v>
+      </c>
+      <c r="AV118">
+        <v>0.78629183510095002</v>
+      </c>
+      <c r="AW118">
+        <v>4.9602294182676802E-2</v>
+      </c>
+      <c r="AX118">
+        <v>4.9602294182676802E-2</v>
+      </c>
+      <c r="AY118">
+        <v>8.47882132817291E-2</v>
+      </c>
+      <c r="AZ118">
+        <v>0.13767407485743499</v>
+      </c>
+      <c r="BA118">
+        <v>0.66585508360287204</v>
+      </c>
+      <c r="BB118">
+        <v>9.6030594575652398E-2</v>
+      </c>
+      <c r="BC118">
+        <v>0.151640187520443</v>
+      </c>
+      <c r="BD118">
+        <v>0.24943870516601899</v>
+      </c>
+      <c r="BE118">
+        <v>0.315257026645338</v>
+      </c>
+      <c r="BF118">
+        <v>0.145632888758329</v>
+      </c>
+      <c r="BG118">
+        <v>0.145632888758329</v>
+      </c>
+      <c r="BH118">
+        <v>0.23642840080217201</v>
+      </c>
+      <c r="BI118" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B119" t="s">
+        <v>442</v>
+      </c>
+      <c r="C119">
+        <v>0.23203124999999999</v>
+      </c>
+      <c r="D119">
+        <v>0.61449095295048395</v>
+      </c>
+      <c r="E119">
+        <v>5.8007812499999999E-2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>2255</v>
+      </c>
+      <c r="G119">
+        <v>0.41902955763864302</v>
+      </c>
+      <c r="H119">
+        <v>1.7383011010178699</v>
+      </c>
+      <c r="I119">
+        <v>0.35037311954628297</v>
+      </c>
+      <c r="J119">
+        <v>8.5721587950024103E-2</v>
+      </c>
+      <c r="K119">
+        <v>8.5721587950024103E-2</v>
+      </c>
+      <c r="L119">
+        <v>8.1601683840467801E-2</v>
+      </c>
+      <c r="M119">
+        <v>8.1601683840467801E-2</v>
+      </c>
+      <c r="N119">
+        <v>0.128946997609029</v>
+      </c>
+      <c r="O119">
+        <v>0.21496697593481601</v>
+      </c>
+      <c r="P119">
+        <v>0.21370816489904901</v>
+      </c>
+      <c r="Q119">
+        <v>0.34239073568609502</v>
+      </c>
+      <c r="R119">
+        <v>0.46066823341424501</v>
+      </c>
+      <c r="S119">
+        <v>0.79242446228627605</v>
+      </c>
+      <c r="T119">
+        <v>0.78629183510095002</v>
+      </c>
+      <c r="U119">
+        <v>4.9602294182676802E-2</v>
+      </c>
+      <c r="V119">
+        <v>4.9602294182676802E-2</v>
+      </c>
+      <c r="W119">
+        <v>8.47882132817291E-2</v>
+      </c>
+      <c r="X119">
+        <v>0.13767407485743499</v>
+      </c>
+      <c r="Y119">
+        <v>0.66585508360287204</v>
+      </c>
+      <c r="Z119">
+        <v>9.6030594575652398E-2</v>
+      </c>
+      <c r="AA119">
+        <v>0.151640187520443</v>
+      </c>
+      <c r="AB119">
+        <v>0.24943870516601899</v>
+      </c>
+      <c r="AC119">
+        <v>0.315257026645338</v>
+      </c>
+      <c r="AD119">
+        <v>0.145632888758329</v>
+      </c>
+      <c r="AE119">
+        <v>0.145632888758329</v>
+      </c>
+      <c r="AF119">
+        <v>0.23642840080217201</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>2271</v>
       </c>
     </row>
   </sheetData>
@@ -8015,6 +12403,1081 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586012A8-8AF9-CD4A-ACDC-14B2A9CD1D06}">
+  <dimension ref="A1:A214"/>
+  <sheetViews>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>971</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAE89AA-205C-8247-9FB7-4127B7D156F2}">
   <dimension ref="A1:X62"/>
   <sheetViews>
@@ -9461,7 +14924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B123B340-5F24-CE4E-97D0-EB6D41FB132E}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
@@ -11235,7 +16698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDCC21D-D8B2-0248-8D7F-AEA0911F66B7}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -11381,10 +16844,627 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B4B429-B061-3740-A017-B27B82CD60AB}">
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N30" sqref="N30:N39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2168</v>
+      </c>
+      <c r="I2">
+        <v>0.93352553866202603</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2168</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2189</v>
+      </c>
+      <c r="G3">
+        <v>1.2653896522813699</v>
+      </c>
+      <c r="I3">
+        <v>9.5872253702174302</v>
+      </c>
+      <c r="K3">
+        <v>0.93352553866202603</v>
+      </c>
+      <c r="M3">
+        <v>1.2653896522813699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="G4">
+        <v>3.6311590446800501</v>
+      </c>
+      <c r="I4">
+        <v>2.8859490212940102</v>
+      </c>
+      <c r="K4">
+        <v>9.5872253702174302</v>
+      </c>
+      <c r="M4">
+        <v>3.6311590446800501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2210</v>
+      </c>
+      <c r="G5">
+        <v>15.786311627071999</v>
+      </c>
+      <c r="I5">
+        <v>0.32518891379328002</v>
+      </c>
+      <c r="K5">
+        <v>2.8859490212940102</v>
+      </c>
+      <c r="M5">
+        <v>15.786311627071999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G6">
+        <v>0.49057842110274302</v>
+      </c>
+      <c r="I6">
+        <v>5.1906848581875504</v>
+      </c>
+      <c r="K6">
+        <v>0.32518891379328002</v>
+      </c>
+      <c r="M6">
+        <v>0.49057842110274302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2212</v>
+      </c>
+      <c r="G7">
+        <v>2.0697167994334098</v>
+      </c>
+      <c r="I7">
+        <v>1.8354847172725099</v>
+      </c>
+      <c r="K7">
+        <v>5.1906848581875504</v>
+      </c>
+      <c r="M7">
+        <v>2.0697167994334098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2213</v>
+      </c>
+      <c r="G8">
+        <v>5.9592789350314401</v>
+      </c>
+      <c r="I8">
+        <v>1.2590008952898999</v>
+      </c>
+      <c r="K8">
+        <v>1.8354847172725099</v>
+      </c>
+      <c r="M8">
+        <v>5.9592789350314401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2214</v>
+      </c>
+      <c r="G9">
+        <v>0.93925706882434401</v>
+      </c>
+      <c r="I9">
+        <v>15.5980782652243</v>
+      </c>
+      <c r="K9">
+        <v>1.2590008952898999</v>
+      </c>
+      <c r="M9">
+        <v>0.93925706882434401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G10">
+        <v>2.8978973775628099</v>
+      </c>
+      <c r="I10">
+        <v>3.6157730518913</v>
+      </c>
+      <c r="K10">
+        <v>15.5980782652243</v>
+      </c>
+      <c r="M10">
+        <v>2.8978973775628099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2216</v>
+      </c>
+      <c r="G11">
+        <v>9.6563661780002601</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2229</v>
+      </c>
+      <c r="K11">
+        <v>3.6157730518913</v>
+      </c>
+      <c r="M11">
+        <v>9.6563661780002601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2217</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2229</v>
+      </c>
+      <c r="I12">
+        <v>8.3211133666654007</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2229</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G13">
+        <v>4.1325947606631797</v>
+      </c>
+      <c r="I13">
+        <v>2.6463408534083901</v>
+      </c>
+      <c r="K13">
+        <v>8.3211133666654007</v>
+      </c>
+      <c r="M13">
+        <v>4.1325947606631797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2218</v>
+      </c>
+      <c r="G14">
+        <v>25.888919393697702</v>
+      </c>
+      <c r="I14">
+        <v>0.30563737172166999</v>
+      </c>
+      <c r="K14">
+        <v>2.6463408534083901</v>
+      </c>
+      <c r="M14">
+        <v>25.888919393697702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G15">
+        <v>0.22660235707007101</v>
+      </c>
+      <c r="I15">
+        <v>5.1171469655164596</v>
+      </c>
+      <c r="K15">
+        <v>0.30563737172166999</v>
+      </c>
+      <c r="M15">
+        <v>0.22660235707007101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2220</v>
+      </c>
+      <c r="G16">
+        <v>1.7260339421680699</v>
+      </c>
+      <c r="I16">
+        <v>1.81162777402131</v>
+      </c>
+      <c r="K16">
+        <v>5.1171469655164596</v>
+      </c>
+      <c r="M16">
+        <v>1.7260339421680699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G17">
+        <v>4.85989294167182</v>
+      </c>
+      <c r="I17">
+        <v>1.2399245243404</v>
+      </c>
+      <c r="K17">
+        <v>1.81162777402131</v>
+      </c>
+      <c r="M17">
+        <v>4.85989294167182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2222</v>
+      </c>
+      <c r="G18">
+        <v>0.70477183795055098</v>
+      </c>
+      <c r="I18">
+        <v>15.0619264547372</v>
+      </c>
+      <c r="K18">
+        <v>1.2399245243404</v>
+      </c>
+      <c r="M18">
+        <v>0.70477183795055098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G19">
+        <v>2.4363612144192399</v>
+      </c>
+      <c r="I19">
+        <v>3.5700807477396799</v>
+      </c>
+      <c r="K19">
+        <v>15.0619264547372</v>
+      </c>
+      <c r="M19">
+        <v>2.4363612144192399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G20">
+        <v>7.3674248068569996</v>
+      </c>
+      <c r="I20">
+        <v>0.76520048667632901</v>
+      </c>
+      <c r="K20">
+        <v>3.5700807477396799</v>
+      </c>
+      <c r="M20">
+        <v>7.3674248068569996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G21">
+        <v>1.1710899487370501</v>
+      </c>
+      <c r="K21">
+        <v>0.76520048667632901</v>
+      </c>
+      <c r="M21">
+        <v>1.1710899487370501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>2168</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>2230</v>
+      </c>
+      <c r="N30">
+        <v>0.93352553866202603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>1.2653896522813699</v>
+      </c>
+      <c r="L31">
+        <v>0.93352553866202603</v>
+      </c>
+      <c r="N31">
+        <v>9.5872253702174302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>3.6311590446800501</v>
+      </c>
+      <c r="L32">
+        <v>9.5872253702174302</v>
+      </c>
+      <c r="N32">
+        <v>2.8859490212940102</v>
+      </c>
+    </row>
+    <row r="33" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>15.786311627071999</v>
+      </c>
+      <c r="L33">
+        <v>2.8859490212940102</v>
+      </c>
+      <c r="N33">
+        <v>0.32518891379328002</v>
+      </c>
+    </row>
+    <row r="34" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>0.49057842110274302</v>
+      </c>
+      <c r="L34">
+        <v>0.32518891379328002</v>
+      </c>
+      <c r="N34">
+        <v>5.1906848581875504</v>
+      </c>
+    </row>
+    <row r="35" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>2.0697167994334098</v>
+      </c>
+      <c r="L35">
+        <v>5.1906848581875504</v>
+      </c>
+      <c r="N35">
+        <v>1.8354847172725099</v>
+      </c>
+    </row>
+    <row r="36" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>5.9592789350314401</v>
+      </c>
+      <c r="L36">
+        <v>1.8354847172725099</v>
+      </c>
+      <c r="N36">
+        <v>1.2590008952898999</v>
+      </c>
+    </row>
+    <row r="37" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>0.93925706882434401</v>
+      </c>
+      <c r="L37">
+        <v>1.2590008952898999</v>
+      </c>
+      <c r="N37">
+        <v>15.5980782652243</v>
+      </c>
+    </row>
+    <row r="38" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>2.8978973775628099</v>
+      </c>
+      <c r="L38">
+        <v>15.5980782652243</v>
+      </c>
+      <c r="N38">
+        <v>3.6157730518913</v>
+      </c>
+    </row>
+    <row r="39" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>9.6563661780002601</v>
+      </c>
+      <c r="L39">
+        <v>3.6157730518913</v>
+      </c>
+      <c r="N39">
+        <v>0.78177078593256899</v>
+      </c>
+    </row>
+    <row r="40" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>1.4439796528659701</v>
+      </c>
+      <c r="L40">
+        <v>0.78177078593256899</v>
+      </c>
+    </row>
+    <row r="42" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="44" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="45" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>0.93352553866202603</v>
+      </c>
+    </row>
+    <row r="46" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>9.5872253702174302</v>
+      </c>
+    </row>
+    <row r="47" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>2.8859490212940102</v>
+      </c>
+    </row>
+    <row r="48" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>0.32518891379328002</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>5.1906848581875504</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>1.8354847172725099</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>1.2590008952898999</v>
+      </c>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>15.5980782652243</v>
+      </c>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>3.6157730518913</v>
+      </c>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>0.78177078593256899</v>
+      </c>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K56" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909765AB-33FF-E84F-A486-AF7E6BFAECEA}">
   <dimension ref="A1:CI124"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="Z1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A18"/>
     </sheetView>
   </sheetViews>
@@ -11405,7 +17485,7 @@
         <v>1484</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
@@ -11413,7 +17493,7 @@
         <v>503</v>
       </c>
       <c r="R2" s="32" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="S2" s="32" t="s">
         <v>2067</v>
@@ -11437,60 +17517,60 @@
         <v>0.416216045058934</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="AB2" s="32" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="AL2" s="32" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="S3" s="32" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="T3" s="32" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="U3" s="32" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="AB3" s="32" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="AD3" s="32" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="AF3" s="32" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="AG3" s="32" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="AH3" s="32" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="AI3" s="32" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="AJ3" s="32" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="AK3" s="32" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="AL3" s="32" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="AM3" s="32" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="AN3" s="32" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="AO3" s="32" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
@@ -12723,13 +18803,13 @@
         <v>3</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="T21" s="32" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="AB21" s="32">
         <v>1</v>
@@ -12738,31 +18818,31 @@
         <v>2</v>
       </c>
       <c r="AF21" s="32" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="AG21" s="32">
         <v>3</v>
       </c>
       <c r="AH21" s="32" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="AI21" s="32" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="AJ21" s="32" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="AK21" s="32" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="AL21" s="32" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="AN21" s="32" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="AO21" s="32" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
@@ -12792,13 +18872,13 @@
         <v>UNconstrained</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="R22" s="32" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="S22" s="32" t="s">
         <v>2005</v>
@@ -12813,43 +18893,43 @@
         <v>616</v>
       </c>
       <c r="AB22" s="32" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="AC22" s="32" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="AD22" s="32" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="AF22" s="32" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="AG22" s="32" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="AH22" s="32" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="AI22" s="32" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="AJ22" s="32" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="AK22" s="32" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="AL22" s="32" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="AN22" s="32" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="AO22" s="32" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="AP22" s="32" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.2">
@@ -13241,7 +19321,7 @@
         <v>2062</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="O27" s="32" t="str">
         <f t="shared" si="7"/>
@@ -13254,10 +19334,10 @@
         <v>2031</v>
       </c>
       <c r="R27" s="32" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="T27" s="32" t="s">
         <v>2066</v>
@@ -13269,25 +19349,25 @@
         <v>2030</v>
       </c>
       <c r="AB27" s="32" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="AC27" s="32" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="AD27" s="32" t="s">
         <v>2031</v>
       </c>
       <c r="AF27" s="32" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="AG27" s="32" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="AH27" s="32" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="AI27" s="32" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="AJ27" s="32" t="s">
         <v>2066</v>
@@ -13299,13 +19379,13 @@
         <v>2066</v>
       </c>
       <c r="AN27" s="32" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="AO27" s="32" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="AP27" s="32" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.2">
@@ -15530,7 +21610,7 @@
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="AA46" s="32" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="AC46" s="32">
         <v>0.61417477171740598</v>
@@ -15916,7 +21996,7 @@
     </row>
     <row r="50" spans="1:85" x14ac:dyDescent="0.2">
       <c r="AA50" s="32" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="AB50" s="37"/>
       <c r="AC50" s="32">
@@ -16325,7 +22405,7 @@
         <v>0.66110138745943403</v>
       </c>
       <c r="AC54" s="32" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="AD54" s="32">
         <v>0.69997210701842605</v>
@@ -16347,13 +22427,13 @@
         <v>0.61243619438359298</v>
       </c>
       <c r="AJ54" s="32" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="AK54" s="32" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="AL54" s="32" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="AN54" s="32">
         <v>0.37545244957058099</v>
@@ -16362,12 +22442,12 @@
         <v>0.36751848889091299</v>
       </c>
       <c r="AP54" s="32" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="56" spans="1:85" x14ac:dyDescent="0.2">
       <c r="N56" s="32" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="O56" s="39">
         <f>+C68</f>
@@ -16401,7 +22481,7 @@
     </row>
     <row r="57" spans="1:85" x14ac:dyDescent="0.2">
       <c r="N57" s="32" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="O57" s="39">
         <f>+B68</f>
@@ -16511,7 +22591,7 @@
         <v>2057</v>
       </c>
       <c r="BC57" s="32" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="BD57" s="32" t="s">
         <v>2065</v>
@@ -16601,12 +22681,12 @@
         <v>0.226341829016764</v>
       </c>
       <c r="CG57" s="32" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="58" spans="1:85" x14ac:dyDescent="0.2">
       <c r="N58" s="32" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="O58" s="39">
         <f>+D68</f>
@@ -16638,7 +22718,7 @@
       </c>
       <c r="V58" s="39"/>
       <c r="AA58" s="32" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="AB58" s="32" t="s">
         <v>2065</v>
@@ -16728,12 +22808,12 @@
         <v>0.226341829016764</v>
       </c>
       <c r="BG58" s="32" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="59" spans="1:85" x14ac:dyDescent="0.2">
       <c r="N59" s="32" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="O59" s="39">
         <f>+B63</f>
@@ -16765,7 +22845,7 @@
       </c>
       <c r="V59" s="39"/>
       <c r="AA59" s="32" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="AB59" s="32" t="s">
         <v>442</v>
@@ -16855,12 +22935,12 @@
         <v>0.227275398766631</v>
       </c>
       <c r="BG59" s="32" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="60" spans="1:85" x14ac:dyDescent="0.2">
       <c r="N60" s="32" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="O60" s="39">
         <f>+C70</f>
@@ -16888,7 +22968,7 @@
     </row>
     <row r="61" spans="1:85" x14ac:dyDescent="0.2">
       <c r="N61" s="32" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="O61" s="39">
         <f>+B70</f>
@@ -16992,7 +23072,7 @@
         <v>2057</v>
       </c>
       <c r="BC61" s="32" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="BD61" s="32" t="s">
         <v>442</v>
@@ -17082,7 +23162,7 @@
         <v>0.227275398766631</v>
       </c>
       <c r="CG61" s="32" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="62" spans="1:85" x14ac:dyDescent="0.2">
@@ -17093,7 +23173,7 @@
         <v>751</v>
       </c>
       <c r="N62" s="32" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="O62" s="39">
         <f>+D70</f>
@@ -17119,7 +23199,7 @@
       </c>
       <c r="V62" s="39"/>
       <c r="AA62" s="32" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="AB62" s="32" t="s">
         <v>442</v>
@@ -17209,7 +23289,7 @@
         <v>0.227275398766631</v>
       </c>
       <c r="BG62" s="32" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="63" spans="1:85" x14ac:dyDescent="0.2">
@@ -17223,7 +23303,7 @@
         <v>8.8974800000000007E-2</v>
       </c>
       <c r="N63" s="32" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="O63" s="39">
         <f>+B65</f>
@@ -17346,7 +23426,7 @@
         <v>2057</v>
       </c>
       <c r="BC65" s="32" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="BD65" s="32" t="s">
         <v>2065</v>
@@ -17436,14 +23516,14 @@
         <v>0.22634112407967599</v>
       </c>
       <c r="CG65" s="32" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="66" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
       <c r="AA66" s="32" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="AB66" s="32" t="s">
         <v>2065</v>
@@ -17533,7 +23613,7 @@
         <v>0.22634112407967599</v>
       </c>
       <c r="BG66" s="32" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="67" spans="2:87" x14ac:dyDescent="0.2">
@@ -17643,7 +23723,7 @@
         <v>2057</v>
       </c>
       <c r="BC68" s="32" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="BD68" s="32" t="s">
         <v>2065</v>
@@ -17658,7 +23738,7 @@
         <v>0.69225385533950401</v>
       </c>
       <c r="BH68" s="32" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="BI68" s="32">
         <v>0.48116553869782702</v>
@@ -17733,7 +23813,7 @@
         <v>0.22167926301576801</v>
       </c>
       <c r="CG68" s="32" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="69" spans="2:87" x14ac:dyDescent="0.2">
@@ -17751,7 +23831,7 @@
       </c>
       <c r="F69" s="34"/>
       <c r="AA69" s="32" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="AB69" s="32" t="s">
         <v>2065</v>
@@ -17766,7 +23846,7 @@
         <v>0.69225385533950401</v>
       </c>
       <c r="AH69" s="32" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="AI69" s="32">
         <v>0.48116553869782702</v>
@@ -17841,7 +23921,7 @@
         <v>0.22167926301576801</v>
       </c>
       <c r="BG69" s="32" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="70" spans="2:87" x14ac:dyDescent="0.2">
@@ -17940,7 +24020,7 @@
         <v>2057</v>
       </c>
       <c r="BC72" s="32" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="BD72" s="32" t="s">
         <v>442</v>
@@ -17955,7 +24035,7 @@
         <v>0.40685377476753198</v>
       </c>
       <c r="BH72" s="32" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="BI72" s="32">
         <v>0.41891266537045901</v>
@@ -18030,12 +24110,12 @@
         <v>0.22244637060262901</v>
       </c>
       <c r="CG72" s="32" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="73" spans="2:87" x14ac:dyDescent="0.2">
       <c r="AA73" s="32" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="AB73" s="32" t="s">
         <v>442</v>
@@ -18050,7 +24130,7 @@
         <v>0.40685377476753198</v>
       </c>
       <c r="AH73" s="32" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="AI73" s="32">
         <v>0.41891266537045901</v>
@@ -18125,7 +24205,7 @@
         <v>0.22244637060262901</v>
       </c>
       <c r="BG73" s="32" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="76" spans="2:87" x14ac:dyDescent="0.2">
@@ -18298,7 +24378,7 @@
         <v>0.34359130893906198</v>
       </c>
       <c r="BL76" s="32" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="BM76" s="32" t="s">
         <v>2059</v>
@@ -18396,7 +24476,7 @@
         <v>0.34359130893906198</v>
       </c>
       <c r="AL77" s="32" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="79" spans="2:87" x14ac:dyDescent="0.2">
@@ -18406,7 +24486,7 @@
     </row>
     <row r="80" spans="2:87" x14ac:dyDescent="0.2">
       <c r="F80" s="32" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="AA80" s="32" t="s">
         <v>2032</v>
@@ -18487,13 +24567,13 @@
         <v>2057</v>
       </c>
       <c r="BA80" s="32" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="BB80" s="32" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="BC80" s="32" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="BD80" s="32" t="s">
         <v>2065</v>
@@ -18508,7 +24588,7 @@
         <v>0.67489481564271203</v>
       </c>
       <c r="BH80" s="32" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="BI80" s="32">
         <v>0.41891266537045901</v>
@@ -18589,33 +24669,33 @@
         <v>0.22167926301576801</v>
       </c>
       <c r="CI80" s="32" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="81" spans="6:87" x14ac:dyDescent="0.2">
       <c r="F81" s="32" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="G81" s="32">
         <v>1</v>
       </c>
       <c r="H81" s="32" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="I81" s="32" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="J81" s="32">
         <v>1</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="L81" s="32" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="AA81" s="32" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="AB81" s="32" t="s">
         <v>2065</v>
@@ -18630,7 +24710,7 @@
         <v>0.67489481564271203</v>
       </c>
       <c r="AF81" s="32" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="AG81" s="32">
         <v>0.41891266537045901</v>
@@ -18711,21 +24791,21 @@
         <v>0.22167926301576801</v>
       </c>
       <c r="BG81" s="32" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="82" spans="6:87" x14ac:dyDescent="0.2">
       <c r="F82" s="32" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="H82" s="32" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="I82" s="32" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="J82" s="32">
         <v>0.420986707040022</v>
@@ -18734,7 +24814,7 @@
         <v>0.99998999990000004</v>
       </c>
       <c r="L82" s="32" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="AA82" s="32" t="s">
         <v>2032</v>
@@ -18815,13 +24895,13 @@
         <v>2057</v>
       </c>
       <c r="BA82" s="32" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="BB82" s="32" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="BC82" s="32" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="BD82" s="32" t="s">
         <v>2065</v>
@@ -18836,7 +24916,7 @@
         <v>0.67489481564271203</v>
       </c>
       <c r="BH82" s="32" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="BI82" s="32">
         <v>0.439724565135995</v>
@@ -18917,15 +24997,15 @@
         <v>0.45025629497472702</v>
       </c>
       <c r="CI82" s="32" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="83" spans="6:87" x14ac:dyDescent="0.2">
       <c r="F83" s="32" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="AA83" s="32" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="AB83" s="32" t="s">
         <v>2065</v>
@@ -18940,7 +25020,7 @@
         <v>0.67489481564271203</v>
       </c>
       <c r="AF83" s="32" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="AG83" s="32">
         <v>0.439724565135995</v>
@@ -19021,44 +25101,44 @@
         <v>0.45025629497472702</v>
       </c>
       <c r="BG83" s="32" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="84" spans="6:87" x14ac:dyDescent="0.2">
       <c r="F84" s="32" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="G84" s="32">
         <v>1</v>
       </c>
       <c r="H84" s="32" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="I84" s="32" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="J84" s="32">
         <v>1</v>
       </c>
       <c r="K84" s="32" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="L84" s="32" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="85" spans="6:87" x14ac:dyDescent="0.2">
       <c r="F85" s="32" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="G85" s="32" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="H85" s="32" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="I85" s="32" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="J85" s="32">
         <v>0.41671219180327101</v>
@@ -19067,23 +25147,23 @@
         <v>5.9890489920656003E-5</v>
       </c>
       <c r="L85" s="32" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="86" spans="6:87" x14ac:dyDescent="0.2">
       <c r="F86" s="32" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="87" spans="6:87" x14ac:dyDescent="0.2">
       <c r="F87" s="32" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="BN87" s="32" t="s">
         <v>2059</v>
@@ -19091,7 +25171,7 @@
     </row>
     <row r="88" spans="6:87" x14ac:dyDescent="0.2">
       <c r="F88" s="32" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="BN88" s="32" t="s">
         <v>2060</v>
@@ -19099,13 +25179,13 @@
     </row>
     <row r="89" spans="6:87" x14ac:dyDescent="0.2">
       <c r="F89" s="32" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="H89" s="32" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="BN89" s="32" t="s">
         <v>2063</v>
@@ -19191,7 +25271,7 @@
         <v>2057</v>
       </c>
       <c r="AI91" s="32" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="AJ91" s="32" t="s">
         <v>442</v>
@@ -19206,7 +25286,7 @@
         <v>5.2603137442949699E-2</v>
       </c>
       <c r="AN91" s="32" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="AO91" s="32">
         <v>5.5982884246161602E-2</v>
@@ -19281,7 +25361,7 @@
         <v>0.15083566020953601</v>
       </c>
       <c r="BM91" s="32" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="92" spans="6:87" x14ac:dyDescent="0.2">
@@ -19301,7 +25381,7 @@
         <v>5.2603137442949699E-2</v>
       </c>
       <c r="K92" s="32" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="L92" s="32">
         <v>5.5982884246161602E-2</v>
@@ -19376,12 +25456,12 @@
         <v>0.15083566020953601</v>
       </c>
       <c r="AM92" s="32" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="94" spans="6:87" x14ac:dyDescent="0.2">
       <c r="F94" s="32" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="95" spans="6:87" x14ac:dyDescent="0.2">
@@ -19554,7 +25634,7 @@
         <v>0.34359130893906198</v>
       </c>
       <c r="BL95" s="32" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="96" spans="6:87" x14ac:dyDescent="0.2">
@@ -19649,7 +25729,7 @@
         <v>0.34359130893906198</v>
       </c>
       <c r="AL96" s="32" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="97" spans="6:65" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -19733,7 +25813,7 @@
         <v>2057</v>
       </c>
       <c r="AI98" s="32" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="AJ98" s="32" t="s">
         <v>2065</v>
@@ -19823,7 +25903,7 @@
         <v>0.17452250111168999</v>
       </c>
       <c r="BM98" s="32" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="99" spans="6:65" x14ac:dyDescent="0.2">
@@ -19906,7 +25986,7 @@
         <v>2057</v>
       </c>
       <c r="AI99" s="32" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="AJ99" s="32" t="s">
         <v>442</v>
@@ -19996,7 +26076,7 @@
         <v>0.17323805405359599</v>
       </c>
       <c r="BM99" s="32" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="100" spans="6:65" x14ac:dyDescent="0.2">
@@ -20079,7 +26159,7 @@
         <v>2057</v>
       </c>
       <c r="AI100" s="32" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="AJ100" s="32" t="s">
         <v>442</v>
@@ -20094,7 +26174,7 @@
         <v>5.2603137442949699E-2</v>
       </c>
       <c r="AN100" s="32" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="AO100" s="32">
         <v>0.180372107949307</v>
@@ -20169,12 +26249,12 @@
         <v>0.188326815151693</v>
       </c>
       <c r="BM100" s="32" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="101" spans="6:65" x14ac:dyDescent="0.2">
       <c r="F101" s="32" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="G101" s="32" t="s">
         <v>442</v>
@@ -20189,7 +26269,7 @@
         <v>5.2603137442949699E-2</v>
       </c>
       <c r="K101" s="32" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="L101" s="32">
         <v>0.180372107949307</v>
@@ -20264,7 +26344,7 @@
         <v>0.188326815151693</v>
       </c>
       <c r="AM101" s="32" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="103" spans="6:65" x14ac:dyDescent="0.2">
@@ -20437,7 +26517,7 @@
         <v>0.34514156434726301</v>
       </c>
       <c r="BL103" s="32" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="104" spans="6:65" x14ac:dyDescent="0.2">
@@ -20532,7 +26612,7 @@
         <v>0.34514156434726301</v>
       </c>
       <c r="AL104" s="32" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="107" spans="6:65" x14ac:dyDescent="0.2">
@@ -20552,7 +26632,7 @@
         <v>5.7842015403256702E-2</v>
       </c>
       <c r="K107" s="32" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="L107" s="32">
         <v>0.32753902465368301</v>
@@ -20627,7 +26707,7 @@
         <v>0.32059758715706499</v>
       </c>
       <c r="AL107" s="32" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="112" spans="6:65" x14ac:dyDescent="0.2">
@@ -20710,7 +26790,7 @@
         <v>2057</v>
       </c>
       <c r="AH112" s="32" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="AI112" s="32" t="s">
         <v>2065</v>
@@ -20725,7 +26805,7 @@
         <v>9.8417074258166204E-2</v>
       </c>
       <c r="AM112" s="32" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="AN112" s="32">
         <v>0.44811776487982402</v>
@@ -20800,12 +26880,12 @@
         <v>0.40178828776696301</v>
       </c>
       <c r="BL112" s="32" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="113" spans="6:64" x14ac:dyDescent="0.2">
       <c r="F113" s="32" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="G113" s="32" t="s">
         <v>2065</v>
@@ -20820,7 +26900,7 @@
         <v>9.8417074258166204E-2</v>
       </c>
       <c r="K113" s="32" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="L113" s="32">
         <v>0.44811776487982402</v>
@@ -20895,7 +26975,7 @@
         <v>0.40178828776696301</v>
       </c>
       <c r="AL113" s="32" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="115" spans="6:64" x14ac:dyDescent="0.2">
@@ -20978,7 +27058,7 @@
         <v>2057</v>
       </c>
       <c r="AH115" s="32" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="AI115" s="32" t="s">
         <v>442</v>
@@ -20993,7 +27073,7 @@
         <v>5.7842015403256702E-2</v>
       </c>
       <c r="AM115" s="32" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="AN115" s="32">
         <v>0.377623963012504</v>
@@ -21068,12 +27148,12 @@
         <v>0.410833740127592</v>
       </c>
       <c r="BL115" s="32" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="116" spans="6:64" x14ac:dyDescent="0.2">
       <c r="F116" s="32" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="G116" s="32" t="s">
         <v>442</v>
@@ -21088,7 +27168,7 @@
         <v>5.7842015403256702E-2</v>
       </c>
       <c r="K116" s="32" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="L116" s="32">
         <v>0.377623963012504</v>
@@ -21163,7 +27243,7 @@
         <v>0.410833740127592</v>
       </c>
       <c r="AL116" s="32" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="118" spans="6:64" x14ac:dyDescent="0.2">
@@ -21246,7 +27326,7 @@
         <v>2057</v>
       </c>
       <c r="AH118" s="32" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="AI118" s="32" t="s">
         <v>442</v>
@@ -21261,7 +27341,7 @@
         <v>5.7842015403256702E-2</v>
       </c>
       <c r="AM118" s="32" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="AN118" s="32">
         <v>0.35848969705783601</v>
@@ -21336,12 +27416,12 @@
         <v>0.42625643608436098</v>
       </c>
       <c r="BL118" s="32" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="119" spans="6:64" x14ac:dyDescent="0.2">
       <c r="F119" s="32" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="G119" s="32" t="s">
         <v>442</v>
@@ -21356,7 +27436,7 @@
         <v>5.7842015403256702E-2</v>
       </c>
       <c r="K119" s="32" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="L119" s="32">
         <v>0.35848969705783601</v>
@@ -21431,7 +27511,7 @@
         <v>0.42625643608436098</v>
       </c>
       <c r="AL119" s="32" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="121" spans="6:64" x14ac:dyDescent="0.2">
@@ -21514,7 +27594,7 @@
         <v>2057</v>
       </c>
       <c r="AH121" s="32" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="AI121" s="32" t="s">
         <v>2065</v>
@@ -21529,7 +27609,7 @@
         <v>9.8412736088663799E-2</v>
       </c>
       <c r="AM121" s="32" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="AN121" s="32">
         <v>0.439724565135995</v>
@@ -21604,7 +27684,7 @@
         <v>0.45025629497472702</v>
       </c>
       <c r="BL121" s="32" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="122" spans="6:64" x14ac:dyDescent="0.2">
@@ -21687,7 +27767,7 @@
         <v>2057</v>
       </c>
       <c r="AH122" s="32" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="AI122" s="32" t="s">
         <v>442</v>
@@ -21777,7 +27857,7 @@
         <v>0.47720443294315901</v>
       </c>
       <c r="BL122" s="32" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="123" spans="6:64" x14ac:dyDescent="0.2">
@@ -21860,7 +27940,7 @@
         <v>2057</v>
       </c>
       <c r="AH123" s="32" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="AI123" s="32" t="s">
         <v>442</v>
@@ -21875,7 +27955,7 @@
         <v>5.2481339452187699E-2</v>
       </c>
       <c r="AM123" s="32" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="AN123" s="32">
         <v>0.21299113513982901</v>
@@ -21950,12 +28030,12 @@
         <v>0.17497837657322399</v>
       </c>
       <c r="BL123" s="32" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="124" spans="6:64" x14ac:dyDescent="0.2">
       <c r="F124" s="32" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="G124" s="32" t="s">
         <v>442</v>
@@ -21970,7 +28050,7 @@
         <v>5.2481339452187699E-2</v>
       </c>
       <c r="K124" s="32" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="L124" s="32">
         <v>0.21299113513982901</v>
@@ -22045,7 +28125,7 @@
         <v>0.17497837657322399</v>
       </c>
       <c r="AL124" s="32" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
     </row>
   </sheetData>
@@ -22054,7 +28134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B995C4-E763-0F40-A0B9-89C095A17C2E}">
   <dimension ref="A1:Z71"/>
   <sheetViews>
@@ -24255,7 +30335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1000AB8-2A73-A945-B432-0CEBF58B2C3E}">
   <dimension ref="A1:R53"/>
   <sheetViews>
@@ -26320,7 +32400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0244A0-1D5E-0A46-8FA7-B4D3C3C18A67}">
   <dimension ref="A1:BH143"/>
   <sheetViews>
@@ -28232,7 +34312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8A306D-2FA1-E146-92FC-6687A481583A}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
@@ -28839,7 +34919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F1FE3-26C0-604A-852F-D533EB47599E}">
   <dimension ref="A1:AB266"/>
   <sheetViews>
@@ -30850,7 +36930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D565D39-C5CF-0F4B-B5C2-7786AFA5640A}">
   <dimension ref="A1:AF401"/>
   <sheetViews>
@@ -61521,1079 +67601,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586012A8-8AF9-CD4A-ACDC-14B2A9CD1D06}">
-  <dimension ref="A1:A214"/>
-  <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>971</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>